--- a/Dengue_SA_data.xlsx
+++ b/Dengue_SA_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchProject\Najmul Bhai\Dengue\Dengue South-Asia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D40B5B-55E4-47BC-AF21-65063EFD1F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AF3F25-287B-47F7-8503-42EAB27B6884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="32">
   <si>
     <t>Year</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Case</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Death</t>
@@ -290,22 +287,24 @@
   <si>
     <t>1,2,3,4</t>
   </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Afganistan</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -334,6 +333,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -349,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -372,56 +383,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,13 +750,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AH13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomRight" activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +782,7 @@
     <col min="19" max="19" width="9.140625" style="1"/>
     <col min="20" max="20" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.140625" style="1"/>
     <col min="25" max="25" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -743,130 +790,199 @@
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-    </row>
-    <row r="2" spans="1:26" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="25"/>
+    </row>
+    <row r="2" spans="1:41" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(C2,"(",D2,")")</f>
         <v>Death(CFR (%))</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>14</v>
+      <c r="F2" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="J2" s="3" t="str">
         <f>CONCATENATE(H2,"(",I2,")")</f>
         <v>Death(CFR (%))</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>14</v>
+      <c r="K2" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="O2" s="3" t="str">
         <f>CONCATENATE(M2,"(",N2,")")</f>
         <v>Death(CFR (%))</v>
       </c>
-      <c r="P2" s="15" t="s">
-        <v>14</v>
+      <c r="P2" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="T2" s="3" t="str">
         <f>CONCATENATE(R2,"(",S2,")")</f>
         <v>Death(CFR (%))</v>
       </c>
-      <c r="U2" s="15" t="s">
-        <v>14</v>
+      <c r="U2" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="Y2" s="3" t="str">
         <f>CONCATENATE(W2,"(",X2,")")</f>
         <v>Death(CFR (%))</v>
       </c>
-      <c r="Z2" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="3" t="str">
+        <f>CONCATENATE(AB2,"(",AC2,")")</f>
+        <v>Death(CFR (%))</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI2" s="3" t="str">
+        <f>CONCATENATE(AG2,"(",AH2,")")</f>
+        <v>Death(CFR (%))</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN2" s="3" t="str">
+        <f>CONCATENATE(AL2,"(",AM2,")")</f>
+        <v>Death(CFR (%))</v>
+      </c>
+      <c r="AO2" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2000</v>
       </c>
@@ -900,17 +1016,14 @@
         <v>10 (1)</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="8" t="e">
-        <f>M3*100/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O3" s="3" t="e">
+      <c r="N3" s="8"/>
+      <c r="O3" s="3" t="str">
         <f>CONCATENATE(M3," (",ROUND(N3,2),")")</f>
-        <v>#DIV/0!</v>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3">
@@ -928,21 +1041,31 @@
         <v>37 (1.11)</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
-      <c r="X3" s="8" t="e">
-        <f>W3*100/V3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y3" s="3" t="e">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="3" t="str">
         <f>CONCATENATE(W3," (",ROUND(X3,2),")")</f>
-        <v>#DIV/0!</v>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="3" t="str">
+        <f>CONCATENATE(AB3," (",ROUND(AC3,2),")")</f>
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+    </row>
+    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2001</v>
       </c>
@@ -957,7 +1080,7 @@
         <v>1.8106995884773662</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f t="shared" ref="E4:E27" si="1">CONCATENATE(C4," (",ROUND(D4,2),")")</f>
+        <f t="shared" ref="E4:E26" si="1">CONCATENATE(C4," (",ROUND(D4,2),")")</f>
         <v>44 (1.81)</v>
       </c>
       <c r="F4" s="10"/>
@@ -972,21 +1095,18 @@
         <v>1.6031457955232911</v>
       </c>
       <c r="J4" s="3" t="str">
-        <f t="shared" ref="J4:J27" si="3">CONCATENATE(H4," (",ROUND(I4,2),")")</f>
+        <f t="shared" ref="J4:J26" si="3">CONCATENATE(H4," (",ROUND(I4,2),")")</f>
         <v>53 (1.6)</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="8" t="e">
-        <f t="shared" ref="N4:N26" si="4">M4*100/L4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="3" t="e">
-        <f t="shared" ref="O4:O27" si="5">CONCATENATE(M4," (",ROUND(N4,2),")")</f>
-        <v>#DIV/0!</v>
+      <c r="N4" s="8"/>
+      <c r="O4" s="3" t="str">
+        <f t="shared" ref="O4:O26" si="4">CONCATENATE(M4," (",ROUND(N4,2),")")</f>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3">
@@ -996,29 +1116,39 @@
         <v>54</v>
       </c>
       <c r="S4" s="8">
-        <f t="shared" ref="S4:S26" si="6">R4*100/Q4</f>
+        <f t="shared" ref="S4:S26" si="5">R4*100/Q4</f>
         <v>1.254646840148699</v>
       </c>
       <c r="T4" s="3" t="str">
-        <f t="shared" ref="T4:T27" si="7">CONCATENATE(R4," (",ROUND(S4,2),")")</f>
+        <f t="shared" ref="T4:T26" si="6">CONCATENATE(R4," (",ROUND(S4,2),")")</f>
         <v>54 (1.25)</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-      <c r="X4" s="8" t="e">
-        <f t="shared" ref="X4:X26" si="8">W4*100/V4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y4" s="3" t="e">
-        <f t="shared" ref="Y4:Y27" si="9">CONCATENATE(W4," (",ROUND(X4,2),")")</f>
-        <v>#DIV/0!</v>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="3" t="str">
+        <f t="shared" ref="Y4:Y26" si="7">CONCATENATE(W4," (",ROUND(X4,2),")")</f>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="3" t="str">
+        <f t="shared" ref="AD4:AD23" si="8">CONCATENATE(AB4," (",ROUND(AC4,2),")")</f>
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+    </row>
+    <row r="5" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2002</v>
       </c>
@@ -1052,17 +1182,14 @@
         <v>33 (1.71)</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="8" t="e">
+      <c r="N5" s="8"/>
+      <c r="O5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3">
@@ -1072,29 +1199,39 @@
         <v>67</v>
       </c>
       <c r="S5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.61282356169395413</v>
+      </c>
+      <c r="T5" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.61282356169395413</v>
-      </c>
-      <c r="T5" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>67 (0.61)</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5" s="8" t="e">
+      <c r="X5" s="8"/>
+      <c r="Y5" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y5" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+    </row>
+    <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2003</v>
       </c>
@@ -1128,17 +1265,14 @@
         <v>215 (1.69)</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="8" t="e">
+      <c r="N6" s="8"/>
+      <c r="O6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3">
@@ -1148,29 +1282,46 @@
         <v>33</v>
       </c>
       <c r="S6" s="8">
+        <f t="shared" si="5"/>
+        <v>0.6867845993756504</v>
+      </c>
+      <c r="T6" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.6867845993756504</v>
-      </c>
-      <c r="T6" s="3" t="str">
+        <v>33 (0.69)</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" s="17">
+        <v>1000</v>
+      </c>
+      <c r="W6" s="17">
+        <v>17</v>
+      </c>
+      <c r="X6" s="8">
+        <f t="shared" ref="X6:X26" si="9">W6*100/V6</f>
+        <v>1.7</v>
+      </c>
+      <c r="Y6" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>33 (0.69)</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="8" t="e">
+        <v>17 (1.7)</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y6" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+    </row>
+    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2004</v>
       </c>
@@ -1204,18 +1355,18 @@
         <v>45 (1.08)</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="3">
         <v>1</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="8">
+        <f t="shared" ref="N7:N26" si="10">M7*100/L7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P7" s="3"/>
@@ -1226,29 +1377,51 @@
         <v>88</v>
       </c>
       <c r="S7" s="8">
+        <f t="shared" si="5"/>
+        <v>0.56910043329237536</v>
+      </c>
+      <c r="T7" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.56910043329237536</v>
-      </c>
-      <c r="T7" s="3" t="str">
+        <v>88 (0.57)</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" s="17">
+        <v>542</v>
+      </c>
+      <c r="W7" s="17">
+        <v>18</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" si="9"/>
+        <v>3.3210332103321032</v>
+      </c>
+      <c r="Y7" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>88 (0.57)</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="8" t="e">
+        <v>18 (3.32)</v>
+      </c>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y7" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="1">
+        <v>2579</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2005</v>
       </c>
@@ -1282,19 +1455,16 @@
         <v>157 (1.31)</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="8" t="e">
+      <c r="N8" s="8"/>
+      <c r="O8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3">
@@ -1304,29 +1474,54 @@
         <v>69</v>
       </c>
       <c r="S8" s="8">
+        <f t="shared" si="5"/>
+        <v>1.1567476948868398</v>
+      </c>
+      <c r="T8" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>1.1567476948868398</v>
-      </c>
-      <c r="T8" s="3" t="str">
+        <v>69 (1.16)</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="17">
+        <v>3940</v>
+      </c>
+      <c r="W8" s="17">
+        <v>21</v>
+      </c>
+      <c r="X8" s="8">
+        <f t="shared" si="9"/>
+        <v>0.53299492385786806</v>
+      </c>
+      <c r="Y8" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>69 (1.16)</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="8" t="e">
+        <v>21 (0.53)</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y8" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="1">
+        <v>19</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2006</v>
       </c>
@@ -1360,18 +1555,18 @@
         <v>184 (1.49)</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="3">
         <v>32</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P9" s="3"/>
@@ -1382,29 +1577,55 @@
         <v>48</v>
       </c>
       <c r="S9" s="8">
+        <f t="shared" si="5"/>
+        <v>0.40066777963272121</v>
+      </c>
+      <c r="T9" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.40066777963272121</v>
-      </c>
-      <c r="T9" s="3" t="str">
+        <v>48 (0.4)</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" s="17">
+        <v>1931</v>
+      </c>
+      <c r="W9" s="17">
+        <v>0</v>
+      </c>
+      <c r="X9" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>48 (0.4)</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="8" t="e">
+        <v>0 (0)</v>
+      </c>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y9" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="1">
+        <v>480</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2007</v>
       </c>
@@ -1438,18 +1659,18 @@
         <v>61 (1.1)</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="3">
         <v>27</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P10" s="3"/>
@@ -1460,29 +1681,49 @@
         <v>27</v>
       </c>
       <c r="S10" s="8">
+        <f t="shared" si="5"/>
+        <v>0.36824877250409166</v>
+      </c>
+      <c r="T10" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.36824877250409166</v>
-      </c>
-      <c r="T10" s="3" t="str">
+        <v>27 (0.37)</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="17">
+        <v>1220</v>
+      </c>
+      <c r="W10" s="17">
+        <v>0</v>
+      </c>
+      <c r="X10" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>27 (0.37)</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="8" t="e">
+        <v>0 (0)</v>
+      </c>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y10" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2008</v>
       </c>
@@ -1516,18 +1757,18 @@
         <v>93 (0.75)</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" s="3">
         <v>10</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P11" s="3"/>
@@ -1538,29 +1779,51 @@
         <v>26</v>
       </c>
       <c r="S11" s="8">
+        <f t="shared" si="5"/>
+        <v>0.39352202209777509</v>
+      </c>
+      <c r="T11" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.39352202209777509</v>
-      </c>
-      <c r="T11" s="3" t="str">
+        <v>26 (0.39)</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11" s="17">
+        <v>2469</v>
+      </c>
+      <c r="W11" s="17">
+        <v>5</v>
+      </c>
+      <c r="X11" s="8">
+        <f t="shared" si="9"/>
+        <v>0.20251113811259619</v>
+      </c>
+      <c r="Y11" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>26 (0.39)</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="8" t="e">
+        <v>5 (0.2)</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y11" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2009</v>
       </c>
@@ -1594,18 +1857,18 @@
         <v>96 (0.62)</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="3">
         <v>30</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P12" s="3"/>
@@ -1616,29 +1879,51 @@
         <v>341</v>
       </c>
       <c r="S12" s="8">
+        <f t="shared" si="5"/>
+        <v>0.97164838296053568</v>
+      </c>
+      <c r="T12" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.97164838296053568</v>
-      </c>
-      <c r="T12" s="3" t="str">
+        <v>341 (0.97)</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V12" s="17">
+        <v>1085</v>
+      </c>
+      <c r="W12" s="17">
+        <v>2</v>
+      </c>
+      <c r="X12" s="8">
+        <f t="shared" si="9"/>
+        <v>0.18433179723502305</v>
+      </c>
+      <c r="Y12" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>341 (0.97)</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="8" t="e">
+        <v>2 (0.18)</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2010</v>
       </c>
@@ -1672,7 +1957,7 @@
         <v>110 (0.39)</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" s="3">
         <v>917</v>
@@ -1681,14 +1966,16 @@
         <v>5</v>
       </c>
       <c r="N13" s="8">
+        <f t="shared" si="10"/>
+        <v>0.54525627044711011</v>
+      </c>
+      <c r="O13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0.54525627044711011</v>
-      </c>
-      <c r="O13" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>5 (0.55)</v>
       </c>
-      <c r="P13" s="3"/>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
       <c r="Q13" s="3">
         <v>34188</v>
       </c>
@@ -1696,29 +1983,51 @@
         <v>209</v>
       </c>
       <c r="S13" s="8">
+        <f t="shared" si="5"/>
+        <v>0.61132561132561136</v>
+      </c>
+      <c r="T13" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.61132561132561136</v>
-      </c>
-      <c r="T13" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>209 (0.61)</v>
       </c>
       <c r="U13" s="9">
         <v>1</v>
       </c>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="8" t="e">
+      <c r="V13" s="17">
+        <v>11024</v>
+      </c>
+      <c r="W13" s="17">
+        <v>4</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" si="9"/>
+        <v>3.6284470246734396E-2</v>
+      </c>
+      <c r="Y13" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>4 (0.04)</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="1">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2011</v>
       </c>
@@ -1752,18 +2061,18 @@
         <v>169 (0.9)</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="3">
         <v>79</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P14" s="3"/>
@@ -1774,29 +2083,53 @@
         <v>186</v>
       </c>
       <c r="S14" s="8">
+        <f t="shared" si="5"/>
+        <v>0.65325044779264563</v>
+      </c>
+      <c r="T14" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.65325044779264563</v>
-      </c>
-      <c r="T14" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>186 (0.65)</v>
       </c>
       <c r="U14" s="9">
         <v>1</v>
       </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="8" t="e">
+      <c r="V14" s="17">
+        <v>23601</v>
+      </c>
+      <c r="W14" s="17">
+        <v>357</v>
+      </c>
+      <c r="X14" s="8">
+        <f t="shared" si="9"/>
+        <v>1.5126477691623237</v>
+      </c>
+      <c r="Y14" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>357 (1.51)</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="19">
+        <v>2909</v>
+      </c>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="1">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2012</v>
       </c>
@@ -1830,18 +2163,18 @@
         <v>242 (0.48)</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="3">
         <v>183</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P15" s="3"/>
@@ -1852,29 +2185,54 @@
         <v>181</v>
       </c>
       <c r="S15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.40709835586244125</v>
+      </c>
+      <c r="T15" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.40709835586244125</v>
-      </c>
-      <c r="T15" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>181 (0.41)</v>
       </c>
       <c r="U15" s="9">
         <v>1</v>
       </c>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="8" t="e">
+      <c r="V15" s="17">
+        <v>800</v>
+      </c>
+      <c r="W15" s="17">
+        <v>0</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>0 (0)</v>
+      </c>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="19">
+        <v>1083</v>
+      </c>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y15" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="1">
+        <v>1101</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2013</v>
       </c>
@@ -1893,7 +2251,7 @@
         <v>2 (0.11)</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="3">
         <v>75808</v>
@@ -1910,21 +2268,23 @@
         <v>193 (0.25)</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L16" s="3">
         <v>686</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
-      <c r="P16" s="3"/>
+      <c r="P16" s="3">
+        <v>2</v>
+      </c>
       <c r="Q16" s="3">
         <v>32063</v>
       </c>
@@ -1932,29 +2292,56 @@
         <v>85</v>
       </c>
       <c r="S16" s="8">
+        <f t="shared" si="5"/>
+        <v>0.2651030783145682</v>
+      </c>
+      <c r="T16" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.2651030783145682</v>
-      </c>
-      <c r="T16" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>85 (0.27)</v>
       </c>
       <c r="U16" s="9">
         <v>1</v>
       </c>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="8" t="e">
+      <c r="V16" s="17">
+        <v>11810</v>
+      </c>
+      <c r="W16" s="17">
+        <v>7</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" si="9"/>
+        <v>5.9271803556308213E-2</v>
+      </c>
+      <c r="Y16" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>7 (0.06)</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="19">
+        <v>681</v>
+      </c>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z16" s="4"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="1">
+        <v>111</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2014</v>
       </c>
@@ -1973,7 +2360,7 @@
         <v>0 (0)</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="3">
         <v>40571</v>
@@ -1990,18 +2377,18 @@
         <v>137 (0.34)</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" s="3">
         <v>356</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P17" s="3"/>
@@ -2012,29 +2399,50 @@
         <v>95</v>
       </c>
       <c r="S17" s="8">
+        <f t="shared" si="5"/>
+        <v>0.19999157930192413</v>
+      </c>
+      <c r="T17" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.19999157930192413</v>
-      </c>
-      <c r="T17" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>95 (0.2)</v>
       </c>
       <c r="U17" s="9">
         <v>1</v>
       </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="8" t="e">
+      <c r="V17" s="17">
+        <v>1145</v>
+      </c>
+      <c r="W17" s="17">
+        <v>1</v>
+      </c>
+      <c r="X17" s="8">
+        <f t="shared" si="9"/>
+        <v>8.7336244541484712E-2</v>
+      </c>
+      <c r="Y17" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>1 (0.09)</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA17" s="19">
+        <v>775</v>
+      </c>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y17" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+    </row>
+    <row r="18" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2015</v>
       </c>
@@ -2053,7 +2461,7 @@
         <v>6 (0.19)</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="3">
         <v>99913</v>
@@ -2070,7 +2478,7 @@
         <v>220 (0.22)</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="3">
         <v>135</v>
@@ -2079,14 +2487,16 @@
         <v>1</v>
       </c>
       <c r="N18" s="8">
+        <f t="shared" si="10"/>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="O18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="O18" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>1 (0.74)</v>
       </c>
-      <c r="P18" s="3"/>
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
       <c r="Q18" s="3">
         <v>29777</v>
       </c>
@@ -2094,29 +2504,52 @@
         <v>56</v>
       </c>
       <c r="S18" s="8">
+        <f t="shared" si="5"/>
+        <v>0.18806461362796789</v>
+      </c>
+      <c r="T18" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.18806461362796789</v>
-      </c>
-      <c r="T18" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>56 (0.19)</v>
       </c>
       <c r="U18" s="9">
         <v>1</v>
       </c>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="8" t="e">
+      <c r="V18" s="17">
+        <v>6899</v>
+      </c>
+      <c r="W18" s="17">
+        <v>8</v>
+      </c>
+      <c r="X18" s="8">
+        <f t="shared" si="9"/>
+        <v>0.11595883461371213</v>
+      </c>
+      <c r="Y18" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>8 (0.12)</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA18" s="19">
+        <v>1890</v>
+      </c>
+      <c r="AB18" s="19">
+        <v>6</v>
+      </c>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y18" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6 (0)</v>
+      </c>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+    </row>
+    <row r="19" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2016</v>
       </c>
@@ -2135,7 +2568,7 @@
         <v>14 (0.23)</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="3">
         <v>129166</v>
@@ -2152,7 +2585,7 @@
         <v>245 (0.19)</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L19" s="3">
         <v>1527</v>
@@ -2161,14 +2594,16 @@
         <v>1</v>
       </c>
       <c r="N19" s="8">
+        <f t="shared" si="10"/>
+        <v>6.548788474132286E-2</v>
+      </c>
+      <c r="O19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>6.548788474132286E-2</v>
-      </c>
-      <c r="O19" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>1 (0.07)</v>
       </c>
-      <c r="P19" s="3"/>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
       <c r="Q19" s="3">
         <v>55150</v>
       </c>
@@ -2176,29 +2611,58 @@
         <v>97</v>
       </c>
       <c r="S19" s="8">
+        <f t="shared" si="5"/>
+        <v>0.17588395285584768</v>
+      </c>
+      <c r="T19" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.17588395285584768</v>
-      </c>
-      <c r="T19" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>97 (0.18)</v>
       </c>
       <c r="U19" s="9">
         <v>1</v>
       </c>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="8" t="e">
+      <c r="V19" s="17">
+        <v>7721</v>
+      </c>
+      <c r="W19" s="17">
+        <v>3</v>
+      </c>
+      <c r="X19" s="8">
+        <f t="shared" si="9"/>
+        <v>3.8855070586711567E-2</v>
+      </c>
+      <c r="Y19" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>3 (0.04)</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA19" s="19">
+        <v>1931</v>
+      </c>
+      <c r="AB19" s="19">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y19" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3 (0)</v>
+      </c>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="1">
+        <v>550</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2017</v>
       </c>
@@ -2217,7 +2681,7 @@
         <v>8 (0.29)</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="3">
         <v>188401</v>
@@ -2234,7 +2698,7 @@
         <v>325 (0.17)</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20" s="3">
         <v>2111</v>
@@ -2243,14 +2707,16 @@
         <v>3</v>
       </c>
       <c r="N20" s="8">
+        <f t="shared" si="10"/>
+        <v>0.14211274277593558</v>
+      </c>
+      <c r="O20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0.14211274277593558</v>
-      </c>
-      <c r="O20" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>3 (0.14)</v>
       </c>
-      <c r="P20" s="3"/>
+      <c r="P20" s="3">
+        <v>1</v>
+      </c>
       <c r="Q20" s="3">
         <v>186101</v>
       </c>
@@ -2258,29 +2724,54 @@
         <v>437</v>
       </c>
       <c r="S20" s="8">
+        <f t="shared" si="5"/>
+        <v>0.23481872746519364</v>
+      </c>
+      <c r="T20" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.23481872746519364</v>
-      </c>
-      <c r="T20" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>437 (0.23)</v>
       </c>
       <c r="U20" s="11">
         <v>2</v>
       </c>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="8" t="e">
+      <c r="V20" s="17">
+        <v>22934</v>
+      </c>
+      <c r="W20" s="17">
+        <v>1</v>
+      </c>
+      <c r="X20" s="8">
+        <f t="shared" si="9"/>
+        <v>4.3603383622569112E-3</v>
+      </c>
+      <c r="Y20" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>1 (0)</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y20" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="1">
+        <v>87</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2018</v>
       </c>
@@ -2299,7 +2790,7 @@
         <v>26 (0.26)</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="12">
         <v>101192</v>
@@ -2316,7 +2807,7 @@
         <v>172 (0.17)</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="3">
         <v>811</v>
@@ -2325,14 +2816,16 @@
         <v>3</v>
       </c>
       <c r="N21" s="8">
+        <f t="shared" si="10"/>
+        <v>0.36991368680641185</v>
+      </c>
+      <c r="O21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0.36991368680641185</v>
-      </c>
-      <c r="O21" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>3 (0.37)</v>
       </c>
-      <c r="P21" s="3"/>
+      <c r="P21" s="3">
+        <v>1</v>
+      </c>
       <c r="Q21" s="3">
         <v>51659</v>
       </c>
@@ -2340,29 +2833,58 @@
         <v>58</v>
       </c>
       <c r="S21" s="8">
+        <f t="shared" si="5"/>
+        <v>0.11227472463655898</v>
+      </c>
+      <c r="T21" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.11227472463655898</v>
-      </c>
-      <c r="T21" s="3" t="str">
+        <v>58 (0.11)</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21" s="17">
+        <v>53498</v>
+      </c>
+      <c r="W21" s="17">
+        <v>3</v>
+      </c>
+      <c r="X21" s="8">
+        <f t="shared" si="9"/>
+        <v>5.6076862686455569E-3</v>
+      </c>
+      <c r="Y21" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>58 (0.11)</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="8" t="e">
+        <v>3 (0.01)</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="19">
+        <v>3494</v>
+      </c>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y21" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE21" s="19">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="1">
+        <v>28</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2019</v>
       </c>
@@ -2381,7 +2903,7 @@
         <v>164 (0.16)</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="12">
         <v>157315</v>
@@ -2398,7 +2920,7 @@
         <v>166 (0.11)</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L22" s="3">
         <v>17992</v>
@@ -2407,14 +2929,16 @@
         <v>6</v>
       </c>
       <c r="N22" s="8">
+        <f t="shared" si="10"/>
+        <v>3.3348154735437972E-2</v>
+      </c>
+      <c r="O22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>3.3348154735437972E-2</v>
-      </c>
-      <c r="O22" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>6 (0.03)</v>
       </c>
-      <c r="P22" s="3"/>
+      <c r="P22" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="Q22" s="3">
         <v>105049</v>
       </c>
@@ -2422,29 +2946,64 @@
         <v>157</v>
       </c>
       <c r="S22" s="8">
+        <f t="shared" si="5"/>
+        <v>0.14945406429380576</v>
+      </c>
+      <c r="T22" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.14945406429380576</v>
-      </c>
-      <c r="T22" s="3" t="str">
+        <v>157 (0.15)</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" s="17">
+        <v>53498</v>
+      </c>
+      <c r="W22" s="17">
+        <v>95</v>
+      </c>
+      <c r="X22" s="8">
+        <f t="shared" si="9"/>
+        <v>0.17757673184044262</v>
+      </c>
+      <c r="Y22" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>157 (0.15)</v>
-      </c>
-      <c r="U22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="8" t="e">
+        <v>95 (0.18)</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA22" s="20">
+        <v>4984</v>
+      </c>
+      <c r="AB22" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="8">
+        <f t="shared" ref="AC22:AC23" si="11">AB22*100/AA22</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y22" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0 (0)</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19">
+        <v>3309</v>
+      </c>
+      <c r="AL22" s="19">
+        <v>6</v>
+      </c>
+      <c r="AO22" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2020</v>
       </c>
@@ -2478,18 +3037,18 @@
         <v>56 (0.13)</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L23" s="3">
         <v>530</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P23" s="3"/>
@@ -2500,29 +3059,58 @@
         <v>46</v>
       </c>
       <c r="S23" s="8">
+        <f t="shared" si="5"/>
+        <v>0.14761568577113152</v>
+      </c>
+      <c r="T23" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.14761568577113152</v>
-      </c>
-      <c r="T23" s="3" t="str">
+        <v>46 (0.15)</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V23" s="17">
+        <v>6016</v>
+      </c>
+      <c r="W23" s="17">
+        <v>0</v>
+      </c>
+      <c r="X23" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>46 (0.15)</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="8" t="e">
+        <v>0 (0)</v>
+      </c>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="20">
+        <v>6896</v>
+      </c>
+      <c r="AB23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y23" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z23" s="4"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0 (0)</v>
+      </c>
+      <c r="AE23" s="19">
+        <v>3</v>
+      </c>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2021</v>
       </c>
@@ -2556,18 +3144,18 @@
         <v>346 (0.18)</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L24" s="3">
         <v>540</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="P24" s="3"/>
@@ -2578,29 +3166,57 @@
         <v>41</v>
       </c>
       <c r="S24" s="8">
+        <f t="shared" si="5"/>
+        <v>0.11412982964035186</v>
+      </c>
+      <c r="T24" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>0.11412982964035186</v>
-      </c>
-      <c r="T24" s="3" t="str">
+        <v>41 (0.11)</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" s="17">
+        <v>52240</v>
+      </c>
+      <c r="W24" s="17">
+        <v>166</v>
+      </c>
+      <c r="X24" s="8">
+        <f t="shared" si="9"/>
+        <v>0.31776416539050534</v>
+      </c>
+      <c r="Y24" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>41 (0.11)</v>
-      </c>
-      <c r="U24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y24" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z24" s="4"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>166 (0.32)</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="3"/>
+      <c r="AF24" s="19">
+        <v>775</v>
+      </c>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="8">
+        <f t="shared" ref="AH24:AH26" si="12">AG24*100/AF24</f>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3" t="str">
+        <f t="shared" ref="AI24:AI26" si="13">CONCATENATE(AG24," (",ROUND(AH24,2),")")</f>
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AJ24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2022</v>
       </c>
@@ -2619,7 +3235,7 @@
         <v>281 (0.45)</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="12">
         <v>233251</v>
@@ -2636,7 +3252,7 @@
         <v>303 (0.13)</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L25" s="3">
         <v>54784</v>
@@ -2645,14 +3261,16 @@
         <v>88</v>
       </c>
       <c r="N25" s="8">
+        <f t="shared" si="10"/>
+        <v>0.16063084112149534</v>
+      </c>
+      <c r="O25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0.16063084112149534</v>
-      </c>
-      <c r="O25" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>88 (0.16)</v>
       </c>
-      <c r="P25" s="3"/>
+      <c r="P25" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="Q25" s="3">
         <v>74769</v>
       </c>
@@ -2660,29 +3278,65 @@
         <v>72</v>
       </c>
       <c r="S25" s="8">
+        <f t="shared" si="5"/>
+        <v>9.6296593508004652E-2</v>
+      </c>
+      <c r="T25" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>9.6296593508004652E-2</v>
-      </c>
-      <c r="T25" s="3" t="str">
+        <v>72 (0.1)</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V25" s="17">
+        <v>79007</v>
+      </c>
+      <c r="W25" s="17">
+        <v>51</v>
+      </c>
+      <c r="X25" s="8">
+        <f t="shared" si="9"/>
+        <v>6.4551242294986516E-2</v>
+      </c>
+      <c r="Y25" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>72 (0.1)</v>
-      </c>
-      <c r="U25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z25" s="4"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+        <v>51 (0.06)</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA25" s="19">
+        <v>1548</v>
+      </c>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="8">
+        <f t="shared" ref="AC25:AC26" si="14">AB25*100/AA25</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3" t="str">
+        <f t="shared" ref="AD25:AD26" si="15">CONCATENATE(AB25," (",ROUND(AC25,2),")")</f>
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF25" s="19">
+        <v>1266</v>
+      </c>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AJ25" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2023</v>
       </c>
@@ -2701,7 +3355,7 @@
         <v>1705 (0.53)</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="12">
         <v>94198</v>
@@ -2718,7 +3372,7 @@
         <v>91 (0.1)</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L26" s="3">
         <v>51243</v>
@@ -2727,14 +3381,16 @@
         <v>20</v>
       </c>
       <c r="N26" s="8">
+        <f t="shared" si="10"/>
+        <v>3.9029721132642504E-2</v>
+      </c>
+      <c r="O26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>3.9029721132642504E-2</v>
-      </c>
-      <c r="O26" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>20 (0.04)</v>
       </c>
-      <c r="P26" s="3"/>
+      <c r="P26" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="Q26" s="3">
         <v>87029</v>
       </c>
@@ -2742,108 +3398,71 @@
         <v>38</v>
       </c>
       <c r="S26" s="8">
+        <f t="shared" si="5"/>
+        <v>4.3663606384078874E-2</v>
+      </c>
+      <c r="T26" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>4.3663606384078874E-2</v>
-      </c>
-      <c r="T26" s="3" t="str">
+        <v>38 (0.04)</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="17">
+        <v>12589</v>
+      </c>
+      <c r="W26" s="17">
+        <v>10</v>
+      </c>
+      <c r="X26" s="8">
+        <f t="shared" si="9"/>
+        <v>7.943442688061006E-2</v>
+      </c>
+      <c r="Y26" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>38 (0.04)</v>
-      </c>
-      <c r="U26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y26" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z26" s="4"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="13">
-        <f>SUM(B3:B26)</f>
-        <v>565425</v>
-      </c>
-      <c r="C27" s="13">
-        <f t="shared" ref="C27:D27" si="10">SUM(C3:C26)</f>
-        <v>2554</v>
-      </c>
-      <c r="D27" s="5">
-        <f t="shared" si="10"/>
-        <v>11.083260221694465</v>
-      </c>
-      <c r="E27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>2554 (11.08)</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="13">
-        <f>SUM(G3:G26)</f>
-        <v>1535957</v>
-      </c>
-      <c r="H27" s="13">
-        <f t="shared" ref="H27" si="11">SUM(H3:H26)</f>
-        <v>3722</v>
-      </c>
-      <c r="I27" s="5">
-        <f t="shared" ref="I27" si="12">SUM(I3:I26)</f>
-        <v>16.106380332640857</v>
-      </c>
-      <c r="J27" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>3722 (16.11)</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="13">
-        <f>SUM(L3:L26)</f>
-        <v>131994</v>
-      </c>
-      <c r="M27" s="13">
-        <f t="shared" ref="M27" si="13">SUM(M3:M26)</f>
-        <v>127</v>
-      </c>
-      <c r="N27" s="5" t="e">
-        <f t="shared" ref="N27" si="14">SUM(N3:N26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="5">
-        <f t="shared" ref="S27" si="15">SUM(S3:S26)</f>
-        <v>10.91995126547927</v>
-      </c>
-      <c r="T27" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> (10.92)</v>
-      </c>
-      <c r="U27" s="3"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="5" t="e">
-        <f t="shared" ref="X27" si="16">SUM(X3:X26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y27" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z27" s="4"/>
+        <v>10 (0.08)</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="21">
+        <v>3223</v>
+      </c>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AF26" s="19">
+        <v>1496</v>
+      </c>
+      <c r="AG26" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="8">
+        <f t="shared" si="12"/>
+        <v>6.684491978609626E-2</v>
+      </c>
+      <c r="AI26" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>1 (0.07)</v>
+      </c>
+      <c r="AJ26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="L1:P1"/>
@@ -2857,10 +3476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D4D356-B917-46D4-A2BF-1F30F221A716}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="F121" sqref="A1:G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,35 +3489,35 @@
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="18" t="str">
+      <c r="F1" s="3" t="str">
         <f>CONCATENATE(D1,"(",E1,")")</f>
         <v>Death(CFR (%))</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>14</v>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="3">
         <v>2000</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4">
@@ -2918,10 +3537,10 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="3">
         <v>2001</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4">
@@ -2941,10 +3560,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="3">
         <v>2002</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4">
@@ -2964,10 +3583,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="3">
         <v>2003</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4">
@@ -2987,10 +3606,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="3">
         <v>2004</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4">
@@ -3010,10 +3629,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="3">
         <v>2005</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4">
@@ -3033,10 +3652,10 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="3">
         <v>2006</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4">
@@ -3056,10 +3675,10 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="3">
         <v>2007</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4">
@@ -3079,10 +3698,10 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="3">
         <v>2008</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="4">
@@ -3102,10 +3721,10 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="3">
         <v>2009</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="4">
@@ -3125,10 +3744,10 @@
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="3">
         <v>2010</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4">
@@ -3148,10 +3767,10 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="3">
         <v>2011</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="4">
@@ -3171,10 +3790,10 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="3">
         <v>2012</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="4">
@@ -3194,10 +3813,10 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="3">
         <v>2013</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="4">
@@ -3215,14 +3834,14 @@
         <v>2 (0.11)</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="3">
         <v>2014</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="4">
@@ -3240,14 +3859,14 @@
         <v>0 (0)</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="3">
         <v>2015</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="4">
@@ -3265,14 +3884,14 @@
         <v>6 (0.19)</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="3">
         <v>2016</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="4">
@@ -3290,14 +3909,14 @@
         <v>14 (0.23)</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="3">
         <v>2017</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="4">
@@ -3315,14 +3934,14 @@
         <v>8 (0.29)</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="3">
         <v>2018</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="4">
@@ -3340,14 +3959,14 @@
         <v>26 (0.26)</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="3">
         <v>2019</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="4">
@@ -3365,14 +3984,14 @@
         <v>164 (0.16)</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="3">
         <v>2020</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="4">
@@ -3392,10 +4011,10 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="3">
         <v>2021</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="4">
@@ -3415,10 +4034,10 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="3">
         <v>2022</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="4">
@@ -3436,14 +4055,14 @@
         <v>281 (0.45)</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="3">
         <v>2023</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="4">
@@ -3461,14 +4080,14 @@
         <v>1705 (0.53)</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="3">
         <v>2000</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="3">
@@ -3486,14 +4105,14 @@
         <v>10 (1)</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="3">
         <v>2001</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="3">
@@ -3511,14 +4130,14 @@
         <v>53 (1.6)</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="3">
         <v>2002</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="3">
@@ -3536,14 +4155,14 @@
         <v>33 (1.71)</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="3">
         <v>2003</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="3">
@@ -3561,14 +4180,14 @@
         <v>215 (1.69)</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="3">
         <v>2004</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="3">
@@ -3586,14 +4205,14 @@
         <v>45 (1.08)</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="3">
         <v>2005</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="3">
@@ -3611,14 +4230,14 @@
         <v>157 (1.31)</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="3">
         <v>2006</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="3">
@@ -3636,14 +4255,14 @@
         <v>184 (1.49)</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="3">
         <v>2007</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="3">
@@ -3661,14 +4280,14 @@
         <v>61 (1.1)</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
+      <c r="A34" s="3">
         <v>2008</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="3">
@@ -3686,14 +4305,14 @@
         <v>93 (0.75)</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="3">
         <v>2009</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="3">
@@ -3711,14 +4330,14 @@
         <v>96 (0.62)</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
+      <c r="A36" s="3">
         <v>2010</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="3">
@@ -3736,14 +4355,14 @@
         <v>110 (0.39)</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
+      <c r="A37" s="3">
         <v>2011</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="3">
@@ -3761,14 +4380,14 @@
         <v>169 (0.9)</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+      <c r="A38" s="3">
         <v>2012</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="3">
@@ -3786,14 +4405,14 @@
         <v>242 (0.48)</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="3">
         <v>2013</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="3">
@@ -3811,14 +4430,14 @@
         <v>193 (0.25)</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+      <c r="A40" s="3">
         <v>2014</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="3">
@@ -3836,14 +4455,14 @@
         <v>137 (0.34)</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="18">
+      <c r="A41" s="3">
         <v>2015</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="3">
@@ -3861,14 +4480,14 @@
         <v>220 (0.22)</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="18">
+      <c r="A42" s="3">
         <v>2016</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="3">
@@ -3886,14 +4505,14 @@
         <v>245 (0.19)</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
+      <c r="A43" s="3">
         <v>2017</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="3">
@@ -3911,14 +4530,14 @@
         <v>325 (0.17)</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="18">
+      <c r="A44" s="3">
         <v>2018</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="12">
@@ -3936,14 +4555,14 @@
         <v>172 (0.17)</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
+      <c r="A45" s="3">
         <v>2019</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="12">
@@ -3961,14 +4580,14 @@
         <v>166 (0.11)</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
+      <c r="A46" s="3">
         <v>2020</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="12">
@@ -3986,14 +4605,14 @@
         <v>56 (0.13)</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
+      <c r="A47" s="3">
         <v>2021</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="12">
@@ -4011,14 +4630,14 @@
         <v>346 (0.18)</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
+      <c r="A48" s="3">
         <v>2022</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="12">
@@ -4036,14 +4655,14 @@
         <v>303 (0.13)</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="18">
+      <c r="A49" s="3">
         <v>2023</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="12">
@@ -4061,90 +4680,78 @@
         <v>91 (0.1)</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="18">
+      <c r="A50" s="3">
         <v>2000</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="8" t="e">
-        <f>D50*100/C50</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="3" t="e">
+      <c r="E50" s="8"/>
+      <c r="F50" s="3" t="str">
         <f>CONCATENATE(D50," (",ROUND(E50,2),")")</f>
-        <v>#DIV/0!</v>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
+      <c r="A51" s="3">
         <v>2001</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="8" t="e">
-        <f t="shared" ref="E51:E73" si="4">D51*100/C51</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="3" t="e">
-        <f t="shared" ref="F51:F73" si="5">CONCATENATE(D51," (",ROUND(E51,2),")")</f>
-        <v>#DIV/0!</v>
+      <c r="E51" s="8"/>
+      <c r="F51" s="3" t="str">
+        <f t="shared" ref="F51:F73" si="4">CONCATENATE(D51," (",ROUND(E51,2),")")</f>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
+      <c r="A52" s="3">
         <v>2002</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="8" t="e">
+      <c r="E52" s="8"/>
+      <c r="F52" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="18">
+      <c r="A53" s="3">
         <v>2003</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="8" t="e">
+      <c r="E53" s="8"/>
+      <c r="F53" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
+      <c r="A54" s="3">
         <v>2004</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="3">
@@ -4152,41 +4759,38 @@
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="8">
+        <f t="shared" ref="E54:E73" si="5">D54*100/C54</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="18">
+      <c r="A55" s="3">
         <v>2005</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
       </c>
       <c r="D55" s="3"/>
-      <c r="E55" s="8" t="e">
+      <c r="E55" s="8"/>
+      <c r="F55" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F55" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="18">
+      <c r="A56" s="3">
         <v>2006</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="3">
@@ -4194,20 +4798,20 @@
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="18">
+      <c r="A57" s="3">
         <v>2007</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="3">
@@ -4215,20 +4819,20 @@
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
+      <c r="A58" s="3">
         <v>2008</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="3">
@@ -4236,20 +4840,20 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="18">
+      <c r="A59" s="3">
         <v>2009</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="3">
@@ -4257,20 +4861,20 @@
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="18">
+      <c r="A60" s="3">
         <v>2010</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="3">
@@ -4280,20 +4884,20 @@
         <v>5</v>
       </c>
       <c r="E60" s="8">
+        <f t="shared" si="5"/>
+        <v>0.54525627044711011</v>
+      </c>
+      <c r="F60" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0.54525627044711011</v>
-      </c>
-      <c r="F60" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>5 (0.55)</v>
       </c>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="18">
+      <c r="A61" s="3">
         <v>2011</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="3">
@@ -4301,20 +4905,20 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="18">
+      <c r="A62" s="3">
         <v>2012</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="3">
@@ -4322,20 +4926,20 @@
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="18">
+      <c r="A63" s="3">
         <v>2013</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="3">
@@ -4343,20 +4947,20 @@
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="18">
+      <c r="A64" s="3">
         <v>2014</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="3">
@@ -4364,20 +4968,20 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="18">
+      <c r="A65" s="3">
         <v>2015</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C65" s="3">
@@ -4387,20 +4991,20 @@
         <v>1</v>
       </c>
       <c r="E65" s="8">
+        <f t="shared" si="5"/>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="F65" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="F65" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>1 (0.74)</v>
       </c>
       <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="18">
+      <c r="A66" s="3">
         <v>2016</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="3">
@@ -4410,20 +5014,20 @@
         <v>1</v>
       </c>
       <c r="E66" s="8">
+        <f t="shared" si="5"/>
+        <v>6.548788474132286E-2</v>
+      </c>
+      <c r="F66" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>6.548788474132286E-2</v>
-      </c>
-      <c r="F66" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>1 (0.07)</v>
       </c>
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="18">
+      <c r="A67" s="3">
         <v>2017</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="3">
@@ -4433,20 +5037,20 @@
         <v>3</v>
       </c>
       <c r="E67" s="8">
+        <f t="shared" si="5"/>
+        <v>0.14211274277593558</v>
+      </c>
+      <c r="F67" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0.14211274277593558</v>
-      </c>
-      <c r="F67" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>3 (0.14)</v>
       </c>
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="18">
+      <c r="A68" s="3">
         <v>2018</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="3">
@@ -4456,20 +5060,20 @@
         <v>3</v>
       </c>
       <c r="E68" s="8">
+        <f t="shared" si="5"/>
+        <v>0.36991368680641185</v>
+      </c>
+      <c r="F68" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0.36991368680641185</v>
-      </c>
-      <c r="F68" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>3 (0.37)</v>
       </c>
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="18">
+      <c r="A69" s="3">
         <v>2019</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="3">
@@ -4479,20 +5083,20 @@
         <v>6</v>
       </c>
       <c r="E69" s="8">
+        <f t="shared" si="5"/>
+        <v>3.3348154735437972E-2</v>
+      </c>
+      <c r="F69" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>3.3348154735437972E-2</v>
-      </c>
-      <c r="F69" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>6 (0.03)</v>
       </c>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="18">
+      <c r="A70" s="3">
         <v>2020</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3">
@@ -4500,20 +5104,20 @@
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="18">
+      <c r="A71" s="3">
         <v>2021</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="3">
@@ -4521,20 +5125,20 @@
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="3" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="18">
+      <c r="A72" s="3">
         <v>2022</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="3">
@@ -4544,22 +5148,22 @@
         <v>88</v>
       </c>
       <c r="E72" s="8">
+        <f t="shared" si="5"/>
+        <v>0.16063084112149534</v>
+      </c>
+      <c r="F72" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>0.16063084112149534</v>
-      </c>
-      <c r="F72" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>88 (0.16)</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="18">
+      <c r="A73" s="3">
         <v>2023</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="3">
@@ -4569,21 +5173,21 @@
         <v>20</v>
       </c>
       <c r="E73" s="8">
+        <f t="shared" si="5"/>
+        <v>3.9029721132642504E-2</v>
+      </c>
+      <c r="F73" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>3.9029721132642504E-2</v>
-      </c>
-      <c r="F73" s="3" t="str">
-        <f t="shared" si="5"/>
         <v>20 (0.04)</v>
       </c>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="18">
+      <c r="A74" s="3">
         <v>2000</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>18</v>
+      <c r="B74" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C74" s="3">
         <v>3343</v>
@@ -4600,15 +5204,15 @@
         <v>37 (1.11)</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="18">
+      <c r="A75" s="3">
         <v>2001</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>18</v>
+      <c r="B75" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C75" s="3">
         <v>4304</v>
@@ -4625,15 +5229,15 @@
         <v>54 (1.25)</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="18">
+      <c r="A76" s="3">
         <v>2002</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>18</v>
+      <c r="B76" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C76" s="3">
         <v>10933</v>
@@ -4650,15 +5254,15 @@
         <v>67 (0.61)</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="18">
+      <c r="A77" s="3">
         <v>2003</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>18</v>
+      <c r="B77" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C77" s="3">
         <v>4805</v>
@@ -4675,15 +5279,15 @@
         <v>33 (0.69)</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="18">
+      <c r="A78" s="3">
         <v>2004</v>
       </c>
-      <c r="B78" s="14" t="s">
-        <v>18</v>
+      <c r="B78" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C78" s="3">
         <v>15463</v>
@@ -4700,15 +5304,15 @@
         <v>88 (0.57)</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="18">
+      <c r="A79" s="3">
         <v>2005</v>
       </c>
-      <c r="B79" s="14" t="s">
-        <v>18</v>
+      <c r="B79" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C79" s="3">
         <v>5965</v>
@@ -4725,15 +5329,15 @@
         <v>69 (1.16)</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="18">
+      <c r="A80" s="3">
         <v>2006</v>
       </c>
-      <c r="B80" s="14" t="s">
-        <v>18</v>
+      <c r="B80" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C80" s="3">
         <v>11980</v>
@@ -4750,15 +5354,15 @@
         <v>48 (0.4)</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="18">
+      <c r="A81" s="3">
         <v>2007</v>
       </c>
-      <c r="B81" s="14" t="s">
-        <v>18</v>
+      <c r="B81" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C81" s="3">
         <v>7332</v>
@@ -4775,15 +5379,15 @@
         <v>27 (0.37)</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="18">
+      <c r="A82" s="3">
         <v>2008</v>
       </c>
-      <c r="B82" s="14" t="s">
-        <v>18</v>
+      <c r="B82" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C82" s="3">
         <v>6607</v>
@@ -4800,15 +5404,15 @@
         <v>26 (0.39)</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="18">
+      <c r="A83" s="3">
         <v>2009</v>
       </c>
-      <c r="B83" s="14" t="s">
-        <v>18</v>
+      <c r="B83" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C83" s="3">
         <v>35095</v>
@@ -4825,15 +5429,15 @@
         <v>341 (0.97)</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="18">
+      <c r="A84" s="3">
         <v>2010</v>
       </c>
-      <c r="B84" s="14" t="s">
-        <v>18</v>
+      <c r="B84" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C84" s="3">
         <v>34188</v>
@@ -4854,11 +5458,11 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="18">
+      <c r="A85" s="3">
         <v>2011</v>
       </c>
-      <c r="B85" s="14" t="s">
-        <v>18</v>
+      <c r="B85" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C85" s="3">
         <v>28473</v>
@@ -4879,11 +5483,11 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="18">
+      <c r="A86" s="3">
         <v>2012</v>
       </c>
-      <c r="B86" s="14" t="s">
-        <v>18</v>
+      <c r="B86" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C86" s="3">
         <v>44461</v>
@@ -4904,11 +5508,11 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="18">
+      <c r="A87" s="3">
         <v>2013</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>18</v>
+      <c r="B87" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C87" s="3">
         <v>32063</v>
@@ -4929,11 +5533,11 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="18">
+      <c r="A88" s="3">
         <v>2014</v>
       </c>
-      <c r="B88" s="14" t="s">
-        <v>18</v>
+      <c r="B88" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C88" s="3">
         <v>47502</v>
@@ -4954,11 +5558,11 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="18">
+      <c r="A89" s="3">
         <v>2015</v>
       </c>
-      <c r="B89" s="14" t="s">
-        <v>18</v>
+      <c r="B89" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C89" s="3">
         <v>29777</v>
@@ -4979,11 +5583,11 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="18">
+      <c r="A90" s="3">
         <v>2016</v>
       </c>
-      <c r="B90" s="14" t="s">
-        <v>18</v>
+      <c r="B90" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C90" s="3">
         <v>55150</v>
@@ -5004,11 +5608,11 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="18">
+      <c r="A91" s="3">
         <v>2017</v>
       </c>
-      <c r="B91" s="14" t="s">
-        <v>18</v>
+      <c r="B91" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C91" s="3">
         <v>186101</v>
@@ -5029,11 +5633,11 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="18">
+      <c r="A92" s="3">
         <v>2018</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>18</v>
+      <c r="B92" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C92" s="3">
         <v>51659</v>
@@ -5050,15 +5654,15 @@
         <v>58 (0.11)</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="18">
+      <c r="A93" s="3">
         <v>2019</v>
       </c>
-      <c r="B93" s="14" t="s">
-        <v>18</v>
+      <c r="B93" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C93" s="3">
         <v>105049</v>
@@ -5075,15 +5679,15 @@
         <v>157 (0.15)</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="18">
+      <c r="A94" s="3">
         <v>2020</v>
       </c>
-      <c r="B94" s="14" t="s">
-        <v>18</v>
+      <c r="B94" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C94" s="3">
         <v>31162</v>
@@ -5100,15 +5704,15 @@
         <v>46 (0.15)</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="18">
+      <c r="A95" s="3">
         <v>2021</v>
       </c>
-      <c r="B95" s="14" t="s">
-        <v>18</v>
+      <c r="B95" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C95" s="3">
         <v>35924</v>
@@ -5125,15 +5729,15 @@
         <v>41 (0.11)</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="18">
+      <c r="A96" s="3">
         <v>2022</v>
       </c>
-      <c r="B96" s="14" t="s">
-        <v>18</v>
+      <c r="B96" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C96" s="3">
         <v>74769</v>
@@ -5150,15 +5754,15 @@
         <v>72 (0.1)</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="18">
+      <c r="A97" s="3">
         <v>2023</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>18</v>
+      <c r="B97" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C97" s="3">
         <v>87029</v>
@@ -5175,464 +5779,560 @@
         <v>38 (0.04)</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="18">
+      <c r="A98" s="3">
         <v>2000</v>
       </c>
-      <c r="B98" s="14" t="s">
-        <v>9</v>
+      <c r="B98" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="8" t="e">
-        <f>D98*100/C98</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F98" s="3" t="e">
+      <c r="E98" s="8"/>
+      <c r="F98" s="3" t="str">
         <f>CONCATENATE(D98," (",ROUND(E98,2),")")</f>
-        <v>#DIV/0!</v>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="18">
+      <c r="A99" s="3">
         <v>2001</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>9</v>
+      <c r="B99" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="8" t="e">
-        <f t="shared" ref="E99:E121" si="8">D99*100/C99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F99" s="3" t="e">
-        <f t="shared" ref="F99:F121" si="9">CONCATENATE(D99," (",ROUND(E99,2),")")</f>
-        <v>#DIV/0!</v>
+      <c r="E99" s="8"/>
+      <c r="F99" s="3" t="str">
+        <f t="shared" ref="F99:F122" si="8">CONCATENATE(D99," (",ROUND(E99,2),")")</f>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="18">
+      <c r="A100" s="3">
         <v>2002</v>
       </c>
-      <c r="B100" s="14" t="s">
-        <v>9</v>
+      <c r="B100" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="8" t="e">
+      <c r="E100" s="8"/>
+      <c r="F100" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="3" t="e">
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D101" s="17">
+        <v>17</v>
+      </c>
+      <c r="E101" s="8">
+        <f t="shared" ref="E101:E121" si="9">D101*100/C101</f>
+        <v>1.7</v>
+      </c>
+      <c r="F101" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>17 (1.7)</v>
+      </c>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="17">
+        <v>542</v>
+      </c>
+      <c r="D102" s="17">
+        <v>18</v>
+      </c>
+      <c r="E102" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="18">
-        <v>2003</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="8" t="e">
+        <v>3.3210332103321032</v>
+      </c>
+      <c r="F102" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F101" s="3" t="e">
+        <v>18 (3.32)</v>
+      </c>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="17">
+        <v>3940</v>
+      </c>
+      <c r="D103" s="17">
+        <v>21</v>
+      </c>
+      <c r="E103" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G101" s="4"/>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="18">
-        <v>2004</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="8" t="e">
+        <v>0.53299492385786806</v>
+      </c>
+      <c r="F103" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F102" s="3" t="e">
+        <v>21 (0.53)</v>
+      </c>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="17">
+        <v>1931</v>
+      </c>
+      <c r="D104" s="17">
+        <v>0</v>
+      </c>
+      <c r="E104" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="18">
-        <v>2005</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F103" s="3" t="e">
+        <v>0 (0)</v>
+      </c>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="17">
+        <v>1220</v>
+      </c>
+      <c r="D105" s="17">
+        <v>0</v>
+      </c>
+      <c r="E105" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="18">
-        <v>2006</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F104" s="3" t="e">
+        <v>0 (0)</v>
+      </c>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="17">
+        <v>2469</v>
+      </c>
+      <c r="D106" s="17">
+        <v>5</v>
+      </c>
+      <c r="E106" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="18">
-        <v>2007</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="8" t="e">
+        <v>0.20251113811259619</v>
+      </c>
+      <c r="F106" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F105" s="3" t="e">
+        <v>5 (0.2)</v>
+      </c>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="17">
+        <v>1085</v>
+      </c>
+      <c r="D107" s="17">
+        <v>2</v>
+      </c>
+      <c r="E107" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="18">
-        <v>2008</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="8" t="e">
+        <v>0.18433179723502305</v>
+      </c>
+      <c r="F107" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="3" t="e">
+        <v>2 (0.18)</v>
+      </c>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="17">
+        <v>11024</v>
+      </c>
+      <c r="D108" s="17">
+        <v>4</v>
+      </c>
+      <c r="E108" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="18">
-        <v>2009</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="8" t="e">
+        <v>3.6284470246734396E-2</v>
+      </c>
+      <c r="F108" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F107" s="3" t="e">
+        <v>4 (0.04)</v>
+      </c>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="17">
+        <v>23601</v>
+      </c>
+      <c r="D109" s="17">
+        <v>357</v>
+      </c>
+      <c r="E109" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="18">
-        <v>2010</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="8" t="e">
+        <v>1.5126477691623237</v>
+      </c>
+      <c r="F109" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F108" s="3" t="e">
+        <v>357 (1.51)</v>
+      </c>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="17">
+        <v>800</v>
+      </c>
+      <c r="D110" s="17">
+        <v>0</v>
+      </c>
+      <c r="E110" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="18">
-        <v>2011</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F109" s="3" t="e">
+        <v>0 (0)</v>
+      </c>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="17">
+        <v>11810</v>
+      </c>
+      <c r="D111" s="17">
+        <v>7</v>
+      </c>
+      <c r="E111" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="18">
-        <v>2012</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="8" t="e">
+        <v>5.9271803556308213E-2</v>
+      </c>
+      <c r="F111" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F110" s="3" t="e">
+        <v>7 (0.06)</v>
+      </c>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="17">
+        <v>1145</v>
+      </c>
+      <c r="D112" s="17">
+        <v>1</v>
+      </c>
+      <c r="E112" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="18">
-        <v>2013</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="8" t="e">
+        <v>8.7336244541484712E-2</v>
+      </c>
+      <c r="F112" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F111" s="3" t="e">
+        <v>1 (0.09)</v>
+      </c>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="17">
+        <v>6899</v>
+      </c>
+      <c r="D113" s="17">
+        <v>8</v>
+      </c>
+      <c r="E113" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="8" t="e">
+        <v>0.11595883461371213</v>
+      </c>
+      <c r="F113" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F112" s="3" t="e">
+        <v>8 (0.12)</v>
+      </c>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="17">
+        <v>7721</v>
+      </c>
+      <c r="D114" s="17">
+        <v>3</v>
+      </c>
+      <c r="E114" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="18">
-        <v>2015</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="8" t="e">
+        <v>3.8855070586711567E-2</v>
+      </c>
+      <c r="F114" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F113" s="3" t="e">
+        <v>3 (0.04)</v>
+      </c>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="17">
+        <v>22934</v>
+      </c>
+      <c r="D115" s="17">
+        <v>1</v>
+      </c>
+      <c r="E115" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G113" s="4"/>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="18">
-        <v>2016</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="8" t="e">
+        <v>4.3603383622569112E-3</v>
+      </c>
+      <c r="F115" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F114" s="3" t="e">
+        <v>1 (0)</v>
+      </c>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="17">
+        <v>53498</v>
+      </c>
+      <c r="D116" s="17">
+        <v>3</v>
+      </c>
+      <c r="E116" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G114" s="4"/>
-    </row>
-    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="18">
-        <v>2017</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="8" t="e">
+        <v>5.6076862686455569E-3</v>
+      </c>
+      <c r="F116" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F115" s="3" t="e">
+        <v>3 (0.01)</v>
+      </c>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="17">
+        <v>53498</v>
+      </c>
+      <c r="D117" s="17">
+        <v>95</v>
+      </c>
+      <c r="E117" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G115" s="4"/>
-    </row>
-    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="8" t="e">
+        <v>0.17757673184044262</v>
+      </c>
+      <c r="F117" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F116" s="3" t="e">
+        <v>95 (0.18)</v>
+      </c>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="17">
+        <v>6016</v>
+      </c>
+      <c r="D118" s="17">
+        <v>0</v>
+      </c>
+      <c r="E118" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="18">
-        <v>2019</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F117" s="3" t="e">
+        <v>0 (0)</v>
+      </c>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="17">
+        <v>52240</v>
+      </c>
+      <c r="D119" s="17">
+        <v>166</v>
+      </c>
+      <c r="E119" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="18">
-        <v>2020</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="8" t="e">
+        <v>0.31776416539050534</v>
+      </c>
+      <c r="F119" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F118" s="3" t="e">
+        <v>166 (0.32)</v>
+      </c>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="17">
+        <v>79007</v>
+      </c>
+      <c r="D120" s="17">
+        <v>51</v>
+      </c>
+      <c r="E120" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G118" s="4"/>
-    </row>
-    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="18">
-        <v>2021</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="8" t="e">
+        <v>6.4551242294986516E-2</v>
+      </c>
+      <c r="F120" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F119" s="3" t="e">
+        <v>51 (0.06)</v>
+      </c>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="17">
+        <v>12589</v>
+      </c>
+      <c r="D121" s="17">
+        <v>10</v>
+      </c>
+      <c r="E121" s="8">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="18">
-        <v>2022</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="8" t="e">
+        <v>7.943442688061006E-2</v>
+      </c>
+      <c r="F121" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F120" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G120" s="4"/>
-    </row>
-    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="18">
-        <v>2023</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="8" t="e">
+        <v>10 (0.08)</v>
+      </c>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="13">
+        <f>SUM(C2:C121)</f>
+        <v>3537479</v>
+      </c>
+      <c r="D122" s="13">
+        <f t="shared" ref="D122" si="10">SUM(D2:D121)</f>
+        <v>9720</v>
+      </c>
+      <c r="E122" s="13">
+        <f>SUM(E2:E121)</f>
+        <v>48.646631715597998</v>
+      </c>
+      <c r="F122" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F121" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G121" s="4"/>
+        <v>9720 (48.65)</v>
+      </c>
+      <c r="G122" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dengue_SA_data.xlsx
+++ b/Dengue_SA_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchProject\Najmul Bhai\Dengue\Dengue South-Asia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AF3F25-287B-47F7-8503-42EAB27B6884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA990B5-112A-4801-818F-A133FE2B0CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -461,14 +461,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,10 +753,10 @@
   <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AH13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AI15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO29" sqref="AO29"/>
+      <selection pane="bottomRight" activeCell="AO7" sqref="AO7:AO26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,41 +794,41 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
       <c r="AA1" s="22" t="s">
         <v>29</v>
       </c>
@@ -846,10 +846,10 @@
       <c r="AK1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="25"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="24"/>
     </row>
     <row r="2" spans="1:41" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1416,6 +1416,10 @@
       <c r="AJ7" s="19"/>
       <c r="AK7" s="1">
         <v>2579</v>
+      </c>
+      <c r="AN7" s="3" t="str">
+        <f>CONCATENATE(AL7," (",ROUND(AM7,2),")")</f>
+        <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>9</v>
@@ -1517,6 +1521,10 @@
       <c r="AK8" s="1">
         <v>19</v>
       </c>
+      <c r="AN8" s="3" t="str">
+        <f t="shared" ref="AN8:AN26" si="11">CONCATENATE(AL8," (",ROUND(AM8,2),")")</f>
+        <v xml:space="preserve"> (0)</v>
+      </c>
       <c r="AO8" s="1">
         <v>3</v>
       </c>
@@ -1621,6 +1629,10 @@
       <c r="AL9" s="1">
         <v>2</v>
       </c>
+      <c r="AN9" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>2 (0)</v>
+      </c>
       <c r="AO9" s="1">
         <v>3</v>
       </c>
@@ -1722,6 +1734,10 @@
       <c r="AK10" s="1">
         <v>86</v>
       </c>
+      <c r="AN10" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
     </row>
     <row r="11" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1822,6 +1838,10 @@
       <c r="AK11" s="1">
         <v>73</v>
       </c>
+      <c r="AN11" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
     </row>
     <row r="12" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1922,6 +1942,10 @@
       <c r="AK12" s="1">
         <v>351</v>
       </c>
+      <c r="AN12" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
     </row>
     <row r="13" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -2026,6 +2050,10 @@
       <c r="AK13" s="1">
         <v>874</v>
       </c>
+      <c r="AN13" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
     </row>
     <row r="14" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -2128,6 +2156,10 @@
       <c r="AK14" s="1">
         <v>712</v>
       </c>
+      <c r="AN14" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
     </row>
     <row r="15" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -2228,6 +2260,10 @@
       <c r="AK15" s="1">
         <v>1101</v>
       </c>
+      <c r="AN15" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
       <c r="AO15" s="1" t="s">
         <v>10</v>
       </c>
@@ -2337,6 +2373,10 @@
       <c r="AK16" s="1">
         <v>111</v>
       </c>
+      <c r="AN16" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
       <c r="AO16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2441,6 +2481,10 @@
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
+      <c r="AN17" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
     </row>
     <row r="18" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -2548,6 +2592,10 @@
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
       <c r="AJ18" s="19"/>
+      <c r="AN18" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
     </row>
     <row r="19" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -2658,6 +2706,10 @@
       <c r="AK19" s="1">
         <v>550</v>
       </c>
+      <c r="AN19" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
       <c r="AO19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2767,6 +2819,10 @@
       <c r="AK20" s="1">
         <v>87</v>
       </c>
+      <c r="AN20" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
       <c r="AO20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2872,7 +2928,9 @@
       <c r="AE21" s="19">
         <v>2</v>
       </c>
-      <c r="AF21" s="19"/>
+      <c r="AF21" s="19">
+        <v>0</v>
+      </c>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
@@ -2880,6 +2938,10 @@
       <c r="AK21" s="1">
         <v>28</v>
       </c>
+      <c r="AN21" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
       <c r="AO21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2980,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="8">
-        <f t="shared" ref="AC22:AC23" si="11">AB22*100/AA22</f>
+        <f>AB22*100/AA22</f>
         <v>0</v>
       </c>
       <c r="AD22" s="3" t="str">
@@ -2989,6 +3051,9 @@
       </c>
       <c r="AE22" s="1">
         <v>3</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>15</v>
       </c>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
@@ -2999,6 +3064,10 @@
       <c r="AL22" s="19">
         <v>6</v>
       </c>
+      <c r="AN22" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>6 (0)</v>
+      </c>
       <c r="AO22" s="19" t="s">
         <v>10</v>
       </c>
@@ -3091,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="8">
-        <f t="shared" si="11"/>
+        <f>AB23*100/AA23</f>
         <v>0</v>
       </c>
       <c r="AD23" s="3" t="str">
@@ -3101,7 +3170,9 @@
       <c r="AE23" s="19">
         <v>3</v>
       </c>
-      <c r="AF23" s="19"/>
+      <c r="AF23" s="19">
+        <v>300</v>
+      </c>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
@@ -3109,6 +3180,10 @@
       <c r="AK23" s="1">
         <v>16</v>
       </c>
+      <c r="AN23" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
     </row>
     <row r="24" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -3202,11 +3277,11 @@
       </c>
       <c r="AG24" s="19"/>
       <c r="AH24" s="8">
-        <f t="shared" ref="AH24:AH26" si="12">AG24*100/AF24</f>
+        <f>AG24*100/AF24</f>
         <v>0</v>
       </c>
       <c r="AI24" s="3" t="str">
-        <f t="shared" ref="AI24:AI26" si="13">CONCATENATE(AG24," (",ROUND(AH24,2),")")</f>
+        <f>CONCATENATE(AG24," (",ROUND(AH24,2),")")</f>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AJ24" s="19" t="s">
@@ -3214,6 +3289,10 @@
       </c>
       <c r="AK24" s="1">
         <v>5</v>
+      </c>
+      <c r="AN24" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
       </c>
     </row>
     <row r="25" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
@@ -3310,11 +3389,11 @@
       </c>
       <c r="AB25" s="19"/>
       <c r="AC25" s="8">
-        <f t="shared" ref="AC25:AC26" si="14">AB25*100/AA25</f>
+        <f>AB25*100/AA25</f>
         <v>0</v>
       </c>
       <c r="AD25" s="3" t="str">
-        <f t="shared" ref="AD25:AD26" si="15">CONCATENATE(AB25," (",ROUND(AC25,2),")")</f>
+        <f>CONCATENATE(AB25," (",ROUND(AC25,2),")")</f>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE25" s="1">
@@ -3325,15 +3404,19 @@
       </c>
       <c r="AG25" s="19"/>
       <c r="AH25" s="8">
-        <f t="shared" si="12"/>
+        <f>AG25*100/AF25</f>
         <v>0</v>
       </c>
       <c r="AI25" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f>CONCATENATE(AG25," (",ROUND(AH25,2),")")</f>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AJ25" s="19" t="s">
         <v>28</v>
+      </c>
+      <c r="AN25" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
       </c>
     </row>
     <row r="26" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
@@ -3430,11 +3513,11 @@
       </c>
       <c r="AB26" s="19"/>
       <c r="AC26" s="8">
-        <f t="shared" si="14"/>
+        <f>AB26*100/AA26</f>
         <v>0</v>
       </c>
       <c r="AD26" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f>CONCATENATE(AB26," (",ROUND(AC26,2),")")</f>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AF26" s="19">
@@ -3444,11 +3527,11 @@
         <v>1</v>
       </c>
       <c r="AH26" s="8">
-        <f t="shared" si="12"/>
+        <f>AG26*100/AF26</f>
         <v>6.684491978609626E-2</v>
       </c>
       <c r="AI26" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f>CONCATENATE(AG26," (",ROUND(AH26,2),")")</f>
         <v>1 (0.07)</v>
       </c>
       <c r="AJ26" s="19" t="s">
@@ -3456,6 +3539,10 @@
       </c>
       <c r="AK26" s="1">
         <v>0</v>
+      </c>
+      <c r="AN26" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> (0)</v>
       </c>
     </row>
   </sheetData>
@@ -6321,7 +6408,7 @@
         <v>3537479</v>
       </c>
       <c r="D122" s="13">
-        <f t="shared" ref="D122" si="10">SUM(D2:D121)</f>
+        <f>SUM(D2:D121)</f>
         <v>9720</v>
       </c>
       <c r="E122" s="13">

--- a/Dengue_SA_data.xlsx
+++ b/Dengue_SA_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchProject\Najmul Bhai\Dengue\Dengue South-Asia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA990B5-112A-4801-818F-A133FE2B0CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B90FDC-6AF7-4FE4-8F8C-C371397578D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -753,10 +753,10 @@
   <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AI15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AH22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO7" sqref="AO7:AO26"/>
+      <selection pane="bottomRight" activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dengue_SA_data.xlsx
+++ b/Dengue_SA_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchProject\Najmul Bhai\Dengue\Dengue South-Asia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816AC7E8-9A88-4F3A-9D38-A02648F92F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5AF509-4593-436C-B9F5-EEE87D722682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -464,7 +464,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,10 +747,10 @@
   <dimension ref="A1:AT26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP2" sqref="AP2:AR2"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,11 +1012,11 @@
         <v>93</v>
       </c>
       <c r="D3" s="5">
-        <f>C3*100/B3</f>
+        <f t="shared" ref="D3:D26" si="0">C3*100/B3</f>
         <v>1.6753738065213475</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f>CONCATENATE(C3," (",ROUND(D3,2),")")</f>
+        <f t="shared" ref="E3:E26" si="1">CONCATENATE(C3," (",ROUND(D3,2),")")</f>
         <v>93 (1.68)</v>
       </c>
       <c r="F3" s="6"/>
@@ -1028,22 +1027,26 @@
         <v>10</v>
       </c>
       <c r="I3" s="5">
-        <f>H3*100/G3</f>
+        <f t="shared" ref="I3:I26" si="2">H3*100/G3</f>
         <v>1</v>
       </c>
       <c r="J3" s="3" t="str">
-        <f>CONCATENATE(H3," (",ROUND(I3,2),")")</f>
+        <f t="shared" ref="J3:J26" si="3">CONCATENATE(H3," (",ROUND(I3,2),")")</f>
         <v>10 (1)</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
       <c r="N3" s="8"/>
       <c r="O3" s="3" t="str">
-        <f>CONCATENATE(M3," (",ROUND(N3,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" ref="O3:O26" si="4">CONCATENATE(M3," (",ROUND(N3,2),")")</f>
+        <v>0 (0)</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3">
@@ -1053,11 +1056,11 @@
         <v>37</v>
       </c>
       <c r="S3" s="8">
-        <f>R3*100/Q3</f>
+        <f t="shared" ref="S3:S26" si="5">R3*100/Q3</f>
         <v>1.1067903081064911</v>
       </c>
       <c r="T3" s="3" t="str">
-        <f>CONCATENATE(R3," (",ROUND(S3,2),")")</f>
+        <f t="shared" ref="T3:T26" si="6">CONCATENATE(R3," (",ROUND(S3,2),")")</f>
         <v>37 (1.11)</v>
       </c>
       <c r="U3" s="9" t="s">
@@ -1067,7 +1070,7 @@
       <c r="W3" s="4"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="3" t="str">
-        <f>CONCATENATE(W3," (",ROUND(X3,2),")")</f>
+        <f t="shared" ref="Y3:Y26" si="7">CONCATENATE(W3," (",ROUND(X3,2),")")</f>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="Z3" s="4"/>
@@ -1075,7 +1078,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="3" t="str">
-        <f>CONCATENATE(AB3," (",ROUND(AC3,2),")")</f>
+        <f t="shared" ref="AD3:AD23" si="8">CONCATENATE(AB3," (",ROUND(AC3,2),")")</f>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE3" s="4"/>
@@ -1084,24 +1087,20 @@
       <c r="AH3" s="16"/>
       <c r="AI3" s="16"/>
       <c r="AJ3" s="16"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
       <c r="AP3" s="1">
-        <f>B3+G3+L3+Q3+V3+AA3+AF3+AK3</f>
+        <f t="shared" ref="AP3:AP26" si="9">B3+G3+L3+Q3+V3+AA3+AF3+AK3</f>
         <v>9894</v>
       </c>
       <c r="AQ3" s="1">
-        <f>C3+H3+M3+R3+W3+AB3+AG3+AL3</f>
+        <f t="shared" ref="AQ3:AQ26" si="10">C3+H3+M3+R3+W3+AB3+AG3+AL3</f>
         <v>140</v>
       </c>
       <c r="AR3" s="1">
-        <f>D3+I3+N3+S3+X3+AC3+AH3+AM3</f>
+        <f t="shared" ref="AR3:AR26" si="11">D3+I3+N3+S3+X3+AC3+AH3+AM3</f>
         <v>3.7821641146278386</v>
       </c>
       <c r="AS3" s="1" t="str">
-        <f>CONCATENATE(AQ3," (",ROUND(AR3,2),")")</f>
+        <f t="shared" ref="AS3:AS26" si="12">CONCATENATE(AQ3," (",ROUND(AR3,2),")")</f>
         <v>140 (3.78)</v>
       </c>
     </row>
@@ -1116,11 +1115,11 @@
         <v>44</v>
       </c>
       <c r="D4" s="5">
-        <f>C4*100/B4</f>
+        <f t="shared" si="0"/>
         <v>1.8106995884773662</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f>CONCATENATE(C4," (",ROUND(D4,2),")")</f>
+        <f t="shared" si="1"/>
         <v>44 (1.81)</v>
       </c>
       <c r="F4" s="10"/>
@@ -1131,22 +1130,26 @@
         <v>53</v>
       </c>
       <c r="I4" s="5">
-        <f>H4*100/G4</f>
+        <f t="shared" si="2"/>
         <v>1.6031457955232911</v>
       </c>
       <c r="J4" s="3" t="str">
-        <f>CONCATENATE(H4," (",ROUND(I4,2),")")</f>
+        <f t="shared" si="3"/>
         <v>53 (1.6)</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
       <c r="N4" s="8"/>
       <c r="O4" s="3" t="str">
-        <f>CONCATENATE(M4," (",ROUND(N4,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3">
@@ -1156,11 +1159,11 @@
         <v>54</v>
       </c>
       <c r="S4" s="8">
-        <f>R4*100/Q4</f>
+        <f t="shared" si="5"/>
         <v>1.254646840148699</v>
       </c>
       <c r="T4" s="3" t="str">
-        <f>CONCATENATE(R4," (",ROUND(S4,2),")")</f>
+        <f t="shared" si="6"/>
         <v>54 (1.25)</v>
       </c>
       <c r="U4" s="9" t="s">
@@ -1170,7 +1173,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="3" t="str">
-        <f>CONCATENATE(W4," (",ROUND(X4,2),")")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="Z4" s="4"/>
@@ -1178,7 +1181,7 @@
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="3" t="str">
-        <f>CONCATENATE(AB4," (",ROUND(AC4,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE4" s="16"/>
@@ -1187,24 +1190,20 @@
       <c r="AH4" s="16"/>
       <c r="AI4" s="16"/>
       <c r="AJ4" s="16"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
       <c r="AP4" s="1">
-        <f>B4+G4+L4+Q4+V4+AA4+AF4+AK4</f>
+        <f t="shared" si="9"/>
         <v>10040</v>
       </c>
       <c r="AQ4" s="1">
-        <f>C4+H4+M4+R4+W4+AB4+AG4+AL4</f>
+        <f t="shared" si="10"/>
         <v>151</v>
       </c>
       <c r="AR4" s="1">
-        <f>D4+I4+N4+S4+X4+AC4+AH4+AM4</f>
+        <f t="shared" si="11"/>
         <v>4.6684922241493565</v>
       </c>
       <c r="AS4" s="1" t="str">
-        <f>CONCATENATE(AQ4," (",ROUND(AR4,2),")")</f>
+        <f t="shared" si="12"/>
         <v>151 (4.67)</v>
       </c>
     </row>
@@ -1219,11 +1218,11 @@
         <v>58</v>
       </c>
       <c r="D5" s="5">
-        <f>C5*100/B5</f>
+        <f t="shared" si="0"/>
         <v>0.93068035943517335</v>
       </c>
       <c r="E5" s="3" t="str">
-        <f>CONCATENATE(C5," (",ROUND(D5,2),")")</f>
+        <f t="shared" si="1"/>
         <v>58 (0.93)</v>
       </c>
       <c r="F5" s="10"/>
@@ -1234,22 +1233,26 @@
         <v>33</v>
       </c>
       <c r="I5" s="5">
-        <f>H5*100/G5</f>
+        <f t="shared" si="2"/>
         <v>1.7133956386292835</v>
       </c>
       <c r="J5" s="3" t="str">
-        <f>CONCATENATE(H5," (",ROUND(I5,2),")")</f>
+        <f t="shared" si="3"/>
         <v>33 (1.71)</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
       <c r="N5" s="8"/>
       <c r="O5" s="3" t="str">
-        <f>CONCATENATE(M5," (",ROUND(N5,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3">
@@ -1259,11 +1262,11 @@
         <v>67</v>
       </c>
       <c r="S5" s="8">
-        <f>R5*100/Q5</f>
+        <f t="shared" si="5"/>
         <v>0.61282356169395413</v>
       </c>
       <c r="T5" s="3" t="str">
-        <f>CONCATENATE(R5," (",ROUND(S5,2),")")</f>
+        <f t="shared" si="6"/>
         <v>67 (0.61)</v>
       </c>
       <c r="U5" s="9" t="s">
@@ -1273,7 +1276,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="3" t="str">
-        <f>CONCATENATE(W5," (",ROUND(X5,2),")")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="Z5" s="4"/>
@@ -1281,7 +1284,7 @@
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="3" t="str">
-        <f>CONCATENATE(AB5," (",ROUND(AC5,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE5" s="16"/>
@@ -1290,24 +1293,20 @@
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
       <c r="AP5" s="1">
-        <f>B5+G5+L5+Q5+V5+AA5+AF5+AK5</f>
+        <f t="shared" si="9"/>
         <v>19091</v>
       </c>
       <c r="AQ5" s="1">
-        <f>C5+H5+M5+R5+W5+AB5+AG5+AL5</f>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
       <c r="AR5" s="1">
-        <f>D5+I5+N5+S5+X5+AC5+AH5+AM5</f>
+        <f t="shared" si="11"/>
         <v>3.2568995597584109</v>
       </c>
       <c r="AS5" s="1" t="str">
-        <f>CONCATENATE(AQ5," (",ROUND(AR5,2),")")</f>
+        <f t="shared" si="12"/>
         <v>158 (3.26)</v>
       </c>
     </row>
@@ -1322,11 +1321,11 @@
         <v>10</v>
       </c>
       <c r="D6" s="5">
-        <f>C6*100/B6</f>
+        <f t="shared" si="0"/>
         <v>2.0576131687242798</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f>CONCATENATE(C6," (",ROUND(D6,2),")")</f>
+        <f t="shared" si="1"/>
         <v>10 (2.06)</v>
       </c>
       <c r="F6" s="10"/>
@@ -1337,22 +1336,26 @@
         <v>215</v>
       </c>
       <c r="I6" s="5">
-        <f>H6*100/G6</f>
+        <f t="shared" si="2"/>
         <v>1.6857456484240239</v>
       </c>
       <c r="J6" s="3" t="str">
-        <f>CONCATENATE(H6," (",ROUND(I6,2),")")</f>
+        <f t="shared" si="3"/>
         <v>215 (1.69)</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
       <c r="N6" s="8"/>
       <c r="O6" s="3" t="str">
-        <f>CONCATENATE(M6," (",ROUND(N6,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3">
@@ -1362,11 +1365,11 @@
         <v>33</v>
       </c>
       <c r="S6" s="8">
-        <f>R6*100/Q6</f>
+        <f t="shared" si="5"/>
         <v>0.6867845993756504</v>
       </c>
       <c r="T6" s="3" t="str">
-        <f>CONCATENATE(R6," (",ROUND(S6,2),")")</f>
+        <f t="shared" si="6"/>
         <v>33 (0.69)</v>
       </c>
       <c r="U6" s="9" t="s">
@@ -1379,11 +1382,11 @@
         <v>17</v>
       </c>
       <c r="X6" s="8">
-        <f>W6*100/V6</f>
+        <f t="shared" ref="X6:X26" si="13">W6*100/V6</f>
         <v>1.7</v>
       </c>
       <c r="Y6" s="3" t="str">
-        <f>CONCATENATE(W6," (",ROUND(X6,2),")")</f>
+        <f t="shared" si="7"/>
         <v>17 (1.7)</v>
       </c>
       <c r="Z6" s="4"/>
@@ -1391,7 +1394,7 @@
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="3" t="str">
-        <f>CONCATENATE(AB6," (",ROUND(AC6,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE6" s="16"/>
@@ -1400,24 +1403,20 @@
       <c r="AH6" s="16"/>
       <c r="AI6" s="16"/>
       <c r="AJ6" s="16"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23"/>
       <c r="AP6" s="1">
-        <f>B6+G6+L6+Q6+V6+AA6+AF6+AK6</f>
+        <f t="shared" si="9"/>
         <v>19045</v>
       </c>
       <c r="AQ6" s="1">
-        <f>C6+H6+M6+R6+W6+AB6+AG6+AL6</f>
+        <f t="shared" si="10"/>
         <v>275</v>
       </c>
       <c r="AR6" s="1">
-        <f>D6+I6+N6+S6+X6+AC6+AH6+AM6</f>
+        <f t="shared" si="11"/>
         <v>6.1301434165239543</v>
       </c>
       <c r="AS6" s="1" t="str">
-        <f>CONCATENATE(AQ6," (",ROUND(AR6,2),")")</f>
+        <f t="shared" si="12"/>
         <v>275 (6.13)</v>
       </c>
     </row>
@@ -1432,11 +1431,11 @@
         <v>13</v>
       </c>
       <c r="D7" s="5">
-        <f>C7*100/B7</f>
+        <f t="shared" si="0"/>
         <v>0.33045246568378239</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f>CONCATENATE(C7," (",ROUND(D7,2),")")</f>
+        <f t="shared" si="1"/>
         <v>13 (0.33)</v>
       </c>
       <c r="F7" s="10"/>
@@ -1447,11 +1446,11 @@
         <v>45</v>
       </c>
       <c r="I7" s="5">
-        <f>H7*100/G7</f>
+        <f t="shared" si="2"/>
         <v>1.0835540573079701</v>
       </c>
       <c r="J7" s="3" t="str">
-        <f>CONCATENATE(H7," (",ROUND(I7,2),")")</f>
+        <f t="shared" si="3"/>
         <v>45 (1.08)</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1460,14 +1459,16 @@
       <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
       <c r="N7" s="8">
         <f>M7*100/L7</f>
         <v>0</v>
       </c>
       <c r="O7" s="3" t="str">
-        <f>CONCATENATE(M7," (",ROUND(N7,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3">
@@ -1477,11 +1478,11 @@
         <v>88</v>
       </c>
       <c r="S7" s="8">
-        <f>R7*100/Q7</f>
+        <f t="shared" si="5"/>
         <v>0.56910043329237536</v>
       </c>
       <c r="T7" s="3" t="str">
-        <f>CONCATENATE(R7," (",ROUND(S7,2),")")</f>
+        <f t="shared" si="6"/>
         <v>88 (0.57)</v>
       </c>
       <c r="U7" s="9" t="s">
@@ -1494,11 +1495,11 @@
         <v>18</v>
       </c>
       <c r="X7" s="8">
-        <f>W7*100/V7</f>
+        <f t="shared" si="13"/>
         <v>3.3210332103321032</v>
       </c>
       <c r="Y7" s="3" t="str">
-        <f>CONCATENATE(W7," (",ROUND(X7,2),")")</f>
+        <f t="shared" si="7"/>
         <v>18 (3.32)</v>
       </c>
       <c r="Z7" s="4"/>
@@ -1506,10 +1507,9 @@
       <c r="AB7" s="16"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="3" t="str">
-        <f>CONCATENATE(AB7," (",ROUND(AC7,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
-      </c>
-      <c r="AE7" s="23"/>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
@@ -1519,30 +1519,30 @@
         <v>2579</v>
       </c>
       <c r="AM7" s="1">
-        <f>AL7*100/AK7</f>
+        <f t="shared" ref="AM7:AM16" si="14">AL7*100/AK7</f>
         <v>0</v>
       </c>
       <c r="AN7" s="3" t="str">
-        <f>CONCATENATE(AL7," (",ROUND(AM7,2),")")</f>
+        <f t="shared" ref="AN7:AN26" si="15">CONCATENATE(AL7," (",ROUND(AM7,2),")")</f>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AP7" s="1">
-        <f>B7+G7+L7+Q7+V7+AA7+AF7+AK7</f>
+        <f t="shared" si="9"/>
         <v>26672</v>
       </c>
       <c r="AQ7" s="1">
-        <f>C7+H7+M7+R7+W7+AB7+AG7+AL7</f>
+        <f t="shared" si="10"/>
         <v>164</v>
       </c>
       <c r="AR7" s="1">
-        <f>D7+I7+N7+S7+X7+AC7+AH7+AM7</f>
+        <f t="shared" si="11"/>
         <v>5.3041401666162304</v>
       </c>
       <c r="AS7" s="1" t="str">
-        <f>CONCATENATE(AQ7," (",ROUND(AR7,2),")")</f>
+        <f t="shared" si="12"/>
         <v>164 (5.3)</v>
       </c>
     </row>
@@ -1557,11 +1557,11 @@
         <v>4</v>
       </c>
       <c r="D8" s="5">
-        <f>C8*100/B8</f>
+        <f t="shared" si="0"/>
         <v>0.38167938931297712</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f>CONCATENATE(C8," (",ROUND(D8,2),")")</f>
+        <f t="shared" si="1"/>
         <v>4 (0.38)</v>
       </c>
       <c r="F8" s="10"/>
@@ -1572,11 +1572,11 @@
         <v>157</v>
       </c>
       <c r="I8" s="5">
-        <f>H8*100/G8</f>
+        <f t="shared" si="2"/>
         <v>1.3099707968293701</v>
       </c>
       <c r="J8" s="3" t="str">
-        <f>CONCATENATE(H8," (",ROUND(I8,2),")")</f>
+        <f t="shared" si="3"/>
         <v>157 (1.31)</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1585,11 +1585,13 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
       <c r="N8" s="8"/>
       <c r="O8" s="3" t="str">
-        <f>CONCATENATE(M8," (",ROUND(N8,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3">
@@ -1599,11 +1601,11 @@
         <v>69</v>
       </c>
       <c r="S8" s="8">
-        <f>R8*100/Q8</f>
+        <f t="shared" si="5"/>
         <v>1.1567476948868398</v>
       </c>
       <c r="T8" s="3" t="str">
-        <f>CONCATENATE(R8," (",ROUND(S8,2),")")</f>
+        <f t="shared" si="6"/>
         <v>69 (1.16)</v>
       </c>
       <c r="U8" s="9" t="s">
@@ -1616,11 +1618,11 @@
         <v>21</v>
       </c>
       <c r="X8" s="8">
-        <f>W8*100/V8</f>
+        <f t="shared" si="13"/>
         <v>0.53299492385786806</v>
       </c>
       <c r="Y8" s="3" t="str">
-        <f>CONCATENATE(W8," (",ROUND(X8,2),")")</f>
+        <f t="shared" si="7"/>
         <v>21 (0.53)</v>
       </c>
       <c r="Z8" s="4" t="s">
@@ -1630,7 +1632,7 @@
       <c r="AB8" s="16"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="3" t="str">
-        <f>CONCATENATE(AB8," (",ROUND(AC8,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE8" s="16"/>
@@ -1639,35 +1641,34 @@
       <c r="AH8" s="16"/>
       <c r="AI8" s="16"/>
       <c r="AJ8" s="16"/>
-      <c r="AK8" s="23">
+      <c r="AK8" s="1">
         <v>19</v>
       </c>
-      <c r="AL8" s="23"/>
       <c r="AM8" s="1">
-        <f>AL8*100/AK8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN8" s="3" t="str">
-        <f>CONCATENATE(AL8," (",ROUND(AM8,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
-      </c>
-      <c r="AO8" s="23">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AO8" s="1">
         <v>3</v>
       </c>
       <c r="AP8" s="1">
-        <f>B8+G8+L8+Q8+V8+AA8+AF8+AK8</f>
+        <f t="shared" si="9"/>
         <v>22957</v>
       </c>
       <c r="AQ8" s="1">
-        <f>C8+H8+M8+R8+W8+AB8+AG8+AL8</f>
+        <f t="shared" si="10"/>
         <v>251</v>
       </c>
       <c r="AR8" s="1">
-        <f>D8+I8+N8+S8+X8+AC8+AH8+AM8</f>
+        <f t="shared" si="11"/>
         <v>3.3813928048870547</v>
       </c>
       <c r="AS8" s="1" t="str">
-        <f>CONCATENATE(AQ8," (",ROUND(AR8,2),")")</f>
+        <f t="shared" si="12"/>
         <v>251 (3.38)</v>
       </c>
     </row>
@@ -1682,11 +1683,11 @@
         <v>11</v>
       </c>
       <c r="D9" s="5">
-        <f>C9*100/B9</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f>CONCATENATE(C9," (",ROUND(D9,2),")")</f>
+        <f t="shared" si="1"/>
         <v>11 (0.5)</v>
       </c>
       <c r="F9" s="10"/>
@@ -1697,11 +1698,11 @@
         <v>184</v>
       </c>
       <c r="I9" s="5">
-        <f>H9*100/G9</f>
+        <f t="shared" si="2"/>
         <v>1.4938702606154095</v>
       </c>
       <c r="J9" s="3" t="str">
-        <f>CONCATENATE(H9," (",ROUND(I9,2),")")</f>
+        <f t="shared" si="3"/>
         <v>184 (1.49)</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1710,14 +1711,16 @@
       <c r="L9" s="3">
         <v>32</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
       <c r="N9" s="8">
-        <f>M9*100/L9</f>
+        <f t="shared" ref="N9:N26" si="16">M9*100/L9</f>
         <v>0</v>
       </c>
       <c r="O9" s="3" t="str">
-        <f>CONCATENATE(M9," (",ROUND(N9,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3">
@@ -1727,11 +1730,11 @@
         <v>48</v>
       </c>
       <c r="S9" s="8">
-        <f>R9*100/Q9</f>
+        <f t="shared" si="5"/>
         <v>0.40066777963272121</v>
       </c>
       <c r="T9" s="3" t="str">
-        <f>CONCATENATE(R9," (",ROUND(S9,2),")")</f>
+        <f t="shared" si="6"/>
         <v>48 (0.4)</v>
       </c>
       <c r="U9" s="11" t="s">
@@ -1744,11 +1747,11 @@
         <v>0</v>
       </c>
       <c r="X9" s="8">
-        <f>W9*100/V9</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y9" s="3" t="str">
-        <f>CONCATENATE(W9," (",ROUND(X9,2),")")</f>
+        <f t="shared" si="7"/>
         <v>0 (0)</v>
       </c>
       <c r="Z9" s="4"/>
@@ -1756,7 +1759,7 @@
       <c r="AB9" s="16"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="3" t="str">
-        <f>CONCATENATE(AB9," (",ROUND(AC9,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE9" s="16"/>
@@ -1772,30 +1775,30 @@
         <v>2</v>
       </c>
       <c r="AM9" s="1">
-        <f>AL9*100/AK9</f>
+        <f t="shared" si="14"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="AN9" s="3" t="str">
-        <f>CONCATENATE(AL9," (",ROUND(AM9,2),")")</f>
+        <f t="shared" si="15"/>
         <v>2 (0.42)</v>
       </c>
       <c r="AO9" s="1">
         <v>3</v>
       </c>
       <c r="AP9" s="1">
-        <f>B9+G9+L9+Q9+V9+AA9+AF9+AK9</f>
+        <f t="shared" si="9"/>
         <v>28940</v>
       </c>
       <c r="AQ9" s="1">
-        <f>C9+H9+M9+R9+W9+AB9+AG9+AL9</f>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="AR9" s="1">
-        <f>D9+I9+N9+S9+X9+AC9+AH9+AM9</f>
+        <f t="shared" si="11"/>
         <v>2.8112047069147974</v>
       </c>
       <c r="AS9" s="1" t="str">
-        <f>CONCATENATE(AQ9," (",ROUND(AR9,2),")")</f>
+        <f t="shared" si="12"/>
         <v>245 (2.81)</v>
       </c>
     </row>
@@ -1810,11 +1813,11 @@
         <v>0</v>
       </c>
       <c r="D10" s="5">
-        <f>C10*100/B10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f>CONCATENATE(C10," (",ROUND(D10,2),")")</f>
+        <f t="shared" si="1"/>
         <v>0 (0)</v>
       </c>
       <c r="F10" s="10"/>
@@ -1825,11 +1828,11 @@
         <v>61</v>
       </c>
       <c r="I10" s="5">
-        <f>H10*100/G10</f>
+        <f t="shared" si="2"/>
         <v>1.1022768341163716</v>
       </c>
       <c r="J10" s="3" t="str">
-        <f>CONCATENATE(H10," (",ROUND(I10,2),")")</f>
+        <f t="shared" si="3"/>
         <v>61 (1.1)</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -1838,14 +1841,16 @@
       <c r="L10" s="3">
         <v>27</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
       <c r="N10" s="8">
-        <f>M10*100/L10</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O10" s="3" t="str">
-        <f>CONCATENATE(M10," (",ROUND(N10,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3">
@@ -1855,11 +1860,11 @@
         <v>27</v>
       </c>
       <c r="S10" s="8">
-        <f>R10*100/Q10</f>
+        <f t="shared" si="5"/>
         <v>0.36824877250409166</v>
       </c>
       <c r="T10" s="3" t="str">
-        <f>CONCATENATE(R10," (",ROUND(S10,2),")")</f>
+        <f t="shared" si="6"/>
         <v>27 (0.37)</v>
       </c>
       <c r="U10" s="9" t="s">
@@ -1872,11 +1877,11 @@
         <v>0</v>
       </c>
       <c r="X10" s="8">
-        <f>W10*100/V10</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y10" s="3" t="str">
-        <f>CONCATENATE(W10," (",ROUND(X10,2),")")</f>
+        <f t="shared" si="7"/>
         <v>0 (0)</v>
       </c>
       <c r="Z10" s="4"/>
@@ -1884,7 +1889,7 @@
       <c r="AB10" s="16"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="3" t="str">
-        <f>CONCATENATE(AB10," (",ROUND(AC10,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE10" s="16"/>
@@ -1893,33 +1898,31 @@
       <c r="AH10" s="16"/>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
-      <c r="AK10" s="23">
+      <c r="AK10" s="1">
         <v>86</v>
       </c>
-      <c r="AL10" s="23"/>
       <c r="AM10" s="1">
-        <f>AL10*100/AK10</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN10" s="3" t="str">
-        <f>CONCATENATE(AL10," (",ROUND(AM10,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
-      </c>
-      <c r="AO10" s="23"/>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
       <c r="AP10" s="1">
-        <f>B10+G10+L10+Q10+V10+AA10+AF10+AK10</f>
+        <f t="shared" si="9"/>
         <v>14665</v>
       </c>
       <c r="AQ10" s="1">
-        <f>C10+H10+M10+R10+W10+AB10+AG10+AL10</f>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="AR10" s="1">
-        <f>D10+I10+N10+S10+X10+AC10+AH10+AM10</f>
+        <f t="shared" si="11"/>
         <v>1.4705256066204633</v>
       </c>
       <c r="AS10" s="1" t="str">
-        <f>CONCATENATE(AQ10," (",ROUND(AR10,2),")")</f>
+        <f t="shared" si="12"/>
         <v>88 (1.47)</v>
       </c>
     </row>
@@ -1934,11 +1937,11 @@
         <v>0</v>
       </c>
       <c r="D11" s="5">
-        <f>C11*100/B11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f>CONCATENATE(C11," (",ROUND(D11,2),")")</f>
+        <f t="shared" si="1"/>
         <v>0 (0)</v>
       </c>
       <c r="F11" s="10"/>
@@ -1949,11 +1952,11 @@
         <v>93</v>
       </c>
       <c r="I11" s="5">
-        <f>H11*100/G11</f>
+        <f t="shared" si="2"/>
         <v>0.7488525646187294</v>
       </c>
       <c r="J11" s="3" t="str">
-        <f>CONCATENATE(H11," (",ROUND(I11,2),")")</f>
+        <f t="shared" si="3"/>
         <v>93 (0.75)</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -1962,14 +1965,16 @@
       <c r="L11" s="3">
         <v>10</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
       <c r="N11" s="8">
-        <f>M11*100/L11</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O11" s="3" t="str">
-        <f>CONCATENATE(M11," (",ROUND(N11,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3">
@@ -1979,11 +1984,11 @@
         <v>26</v>
       </c>
       <c r="S11" s="8">
-        <f>R11*100/Q11</f>
+        <f t="shared" si="5"/>
         <v>0.39352202209777509</v>
       </c>
       <c r="T11" s="3" t="str">
-        <f>CONCATENATE(R11," (",ROUND(S11,2),")")</f>
+        <f t="shared" si="6"/>
         <v>26 (0.39)</v>
       </c>
       <c r="U11" s="9" t="s">
@@ -1996,11 +2001,11 @@
         <v>5</v>
       </c>
       <c r="X11" s="8">
-        <f>W11*100/V11</f>
+        <f t="shared" si="13"/>
         <v>0.20251113811259619</v>
       </c>
       <c r="Y11" s="3" t="str">
-        <f>CONCATENATE(W11," (",ROUND(X11,2),")")</f>
+        <f t="shared" si="7"/>
         <v>5 (0.2)</v>
       </c>
       <c r="Z11" s="4" t="s">
@@ -2010,7 +2015,7 @@
       <c r="AB11" s="16"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="3" t="str">
-        <f>CONCATENATE(AB11," (",ROUND(AC11,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE11" s="16"/>
@@ -2019,33 +2024,31 @@
       <c r="AH11" s="16"/>
       <c r="AI11" s="16"/>
       <c r="AJ11" s="16"/>
-      <c r="AK11" s="23">
+      <c r="AK11" s="1">
         <v>73</v>
       </c>
-      <c r="AL11" s="23"/>
       <c r="AM11" s="1">
-        <f>AL11*100/AK11</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN11" s="3" t="str">
-        <f>CONCATENATE(AL11," (",ROUND(AM11,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
-      </c>
-      <c r="AO11" s="23"/>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
       <c r="AP11" s="1">
-        <f>B11+G11+L11+Q11+V11+AA11+AF11+AK11</f>
+        <f t="shared" si="9"/>
         <v>22731</v>
       </c>
       <c r="AQ11" s="1">
-        <f>C11+H11+M11+R11+W11+AB11+AG11+AL11</f>
+        <f t="shared" si="10"/>
         <v>124</v>
       </c>
       <c r="AR11" s="1">
-        <f>D11+I11+N11+S11+X11+AC11+AH11+AM11</f>
+        <f t="shared" si="11"/>
         <v>1.3448857248291006</v>
       </c>
       <c r="AS11" s="1" t="str">
-        <f>CONCATENATE(AQ11," (",ROUND(AR11,2),")")</f>
+        <f t="shared" si="12"/>
         <v>124 (1.34)</v>
       </c>
     </row>
@@ -2060,11 +2063,11 @@
         <v>0</v>
       </c>
       <c r="D12" s="5">
-        <f>C12*100/B12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f>CONCATENATE(C12," (",ROUND(D12,2),")")</f>
+        <f t="shared" si="1"/>
         <v>0 (0)</v>
       </c>
       <c r="F12" s="10"/>
@@ -2075,11 +2078,11 @@
         <v>96</v>
       </c>
       <c r="I12" s="5">
-        <f>H12*100/G12</f>
+        <f t="shared" si="2"/>
         <v>0.61795944641132927</v>
       </c>
       <c r="J12" s="3" t="str">
-        <f>CONCATENATE(H12," (",ROUND(I12,2),")")</f>
+        <f t="shared" si="3"/>
         <v>96 (0.62)</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -2088,14 +2091,16 @@
       <c r="L12" s="3">
         <v>30</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
       <c r="N12" s="8">
-        <f>M12*100/L12</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O12" s="3" t="str">
-        <f>CONCATENATE(M12," (",ROUND(N12,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3">
@@ -2105,11 +2110,11 @@
         <v>341</v>
       </c>
       <c r="S12" s="8">
-        <f>R12*100/Q12</f>
+        <f t="shared" si="5"/>
         <v>0.97164838296053568</v>
       </c>
       <c r="T12" s="3" t="str">
-        <f>CONCATENATE(R12," (",ROUND(S12,2),")")</f>
+        <f t="shared" si="6"/>
         <v>341 (0.97)</v>
       </c>
       <c r="U12" s="9" t="s">
@@ -2122,11 +2127,11 @@
         <v>2</v>
       </c>
       <c r="X12" s="8">
-        <f>W12*100/V12</f>
+        <f t="shared" si="13"/>
         <v>0.18433179723502305</v>
       </c>
       <c r="Y12" s="3" t="str">
-        <f>CONCATENATE(W12," (",ROUND(X12,2),")")</f>
+        <f t="shared" si="7"/>
         <v>2 (0.18)</v>
       </c>
       <c r="Z12" s="4" t="s">
@@ -2136,7 +2141,7 @@
       <c r="AB12" s="16"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="3" t="str">
-        <f>CONCATENATE(AB12," (",ROUND(AC12,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE12" s="16"/>
@@ -2149,27 +2154,27 @@
         <v>351</v>
       </c>
       <c r="AM12" s="1">
-        <f>AL12*100/AK12</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN12" s="3" t="str">
-        <f>CONCATENATE(AL12," (",ROUND(AM12,2),")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AP12" s="1">
-        <f>B12+G12+L12+Q12+V12+AA12+AF12+AK12</f>
+        <f t="shared" si="9"/>
         <v>52570</v>
       </c>
       <c r="AQ12" s="1">
-        <f>C12+H12+M12+R12+W12+AB12+AG12+AL12</f>
+        <f t="shared" si="10"/>
         <v>439</v>
       </c>
       <c r="AR12" s="1">
-        <f>D12+I12+N12+S12+X12+AC12+AH12+AM12</f>
+        <f t="shared" si="11"/>
         <v>1.7739396266068881</v>
       </c>
       <c r="AS12" s="1" t="str">
-        <f>CONCATENATE(AQ12," (",ROUND(AR12,2),")")</f>
+        <f t="shared" si="12"/>
         <v>439 (1.77)</v>
       </c>
     </row>
@@ -2184,11 +2189,11 @@
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <f>C13*100/B13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f>CONCATENATE(C13," (",ROUND(D13,2),")")</f>
+        <f t="shared" si="1"/>
         <v>0 (0)</v>
       </c>
       <c r="F13" s="10"/>
@@ -2199,11 +2204,11 @@
         <v>110</v>
       </c>
       <c r="I13" s="5">
-        <f>H13*100/G13</f>
+        <f t="shared" si="2"/>
         <v>0.38880248833592534</v>
       </c>
       <c r="J13" s="3" t="str">
-        <f>CONCATENATE(H13," (",ROUND(I13,2),")")</f>
+        <f t="shared" si="3"/>
         <v>110 (0.39)</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -2216,11 +2221,11 @@
         <v>5</v>
       </c>
       <c r="N13" s="8">
-        <f>M13*100/L13</f>
+        <f t="shared" si="16"/>
         <v>0.54525627044711011</v>
       </c>
       <c r="O13" s="3" t="str">
-        <f>CONCATENATE(M13," (",ROUND(N13,2),")")</f>
+        <f t="shared" si="4"/>
         <v>5 (0.55)</v>
       </c>
       <c r="P13" s="3">
@@ -2233,11 +2238,11 @@
         <v>209</v>
       </c>
       <c r="S13" s="8">
-        <f>R13*100/Q13</f>
+        <f t="shared" si="5"/>
         <v>0.61132561132561136</v>
       </c>
       <c r="T13" s="3" t="str">
-        <f>CONCATENATE(R13," (",ROUND(S13,2),")")</f>
+        <f t="shared" si="6"/>
         <v>209 (0.61)</v>
       </c>
       <c r="U13" s="9">
@@ -2250,11 +2255,11 @@
         <v>4</v>
       </c>
       <c r="X13" s="8">
-        <f>W13*100/V13</f>
+        <f t="shared" si="13"/>
         <v>3.6284470246734396E-2</v>
       </c>
       <c r="Y13" s="3" t="str">
-        <f>CONCATENATE(W13," (",ROUND(X13,2),")")</f>
+        <f t="shared" si="7"/>
         <v>4 (0.04)</v>
       </c>
       <c r="Z13" s="4" t="s">
@@ -2264,7 +2269,7 @@
       <c r="AB13" s="16"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="3" t="str">
-        <f>CONCATENATE(AB13," (",ROUND(AC13,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE13" s="16"/>
@@ -2277,27 +2282,27 @@
         <v>874</v>
       </c>
       <c r="AM13" s="1">
-        <f>AL13*100/AK13</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN13" s="3" t="str">
-        <f>CONCATENATE(AL13," (",ROUND(AM13,2),")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AP13" s="1">
-        <f>B13+G13+L13+Q13+V13+AA13+AF13+AK13</f>
+        <f t="shared" si="9"/>
         <v>75704</v>
       </c>
       <c r="AQ13" s="1">
-        <f>C13+H13+M13+R13+W13+AB13+AG13+AL13</f>
+        <f t="shared" si="10"/>
         <v>328</v>
       </c>
       <c r="AR13" s="1">
-        <f>D13+I13+N13+S13+X13+AC13+AH13+AM13</f>
+        <f t="shared" si="11"/>
         <v>1.5816688403553811</v>
       </c>
       <c r="AS13" s="1" t="str">
-        <f>CONCATENATE(AQ13," (",ROUND(AR13,2),")")</f>
+        <f t="shared" si="12"/>
         <v>328 (1.58)</v>
       </c>
     </row>
@@ -2312,11 +2317,11 @@
         <v>6</v>
       </c>
       <c r="D14" s="5">
-        <f>C14*100/B14</f>
+        <f t="shared" si="0"/>
         <v>0.44150110375275936</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f>CONCATENATE(C14," (",ROUND(D14,2),")")</f>
+        <f t="shared" si="1"/>
         <v>6 (0.44)</v>
       </c>
       <c r="F14" s="10"/>
@@ -2327,11 +2332,11 @@
         <v>169</v>
       </c>
       <c r="I14" s="5">
-        <f>H14*100/G14</f>
+        <f t="shared" si="2"/>
         <v>0.89564894800996342</v>
       </c>
       <c r="J14" s="3" t="str">
-        <f>CONCATENATE(H14," (",ROUND(I14,2),")")</f>
+        <f t="shared" si="3"/>
         <v>169 (0.9)</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -2340,14 +2345,16 @@
       <c r="L14" s="3">
         <v>79</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
       <c r="N14" s="8">
-        <f>M14*100/L14</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O14" s="3" t="str">
-        <f>CONCATENATE(M14," (",ROUND(N14,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3">
@@ -2357,11 +2364,11 @@
         <v>186</v>
       </c>
       <c r="S14" s="8">
-        <f>R14*100/Q14</f>
+        <f t="shared" si="5"/>
         <v>0.65325044779264563</v>
       </c>
       <c r="T14" s="3" t="str">
-        <f>CONCATENATE(R14," (",ROUND(S14,2),")")</f>
+        <f t="shared" si="6"/>
         <v>186 (0.65)</v>
       </c>
       <c r="U14" s="9">
@@ -2374,11 +2381,11 @@
         <v>357</v>
       </c>
       <c r="X14" s="8">
-        <f>W14*100/V14</f>
+        <f t="shared" si="13"/>
         <v>1.5126477691623237</v>
       </c>
       <c r="Y14" s="3" t="str">
-        <f>CONCATENATE(W14," (",ROUND(X14,2),")")</f>
+        <f t="shared" si="7"/>
         <v>357 (1.51)</v>
       </c>
       <c r="Z14" s="4" t="s">
@@ -2390,7 +2397,7 @@
       <c r="AB14" s="16"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="3" t="str">
-        <f>CONCATENATE(AB14," (",ROUND(AC14,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE14" s="16"/>
@@ -2403,27 +2410,27 @@
         <v>712</v>
       </c>
       <c r="AM14" s="1">
-        <f>AL14*100/AK14</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN14" s="3" t="str">
-        <f>CONCATENATE(AL14," (",ROUND(AM14,2),")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AP14" s="1">
-        <f>B14+G14+L14+Q14+V14+AA14+AF14+AK14</f>
+        <f t="shared" si="9"/>
         <v>76002</v>
       </c>
       <c r="AQ14" s="1">
-        <f>C14+H14+M14+R14+W14+AB14+AG14+AL14</f>
+        <f t="shared" si="10"/>
         <v>718</v>
       </c>
       <c r="AR14" s="1">
-        <f>D14+I14+N14+S14+X14+AC14+AH14+AM14</f>
+        <f t="shared" si="11"/>
         <v>3.5030482687176923</v>
       </c>
       <c r="AS14" s="1" t="str">
-        <f>CONCATENATE(AQ14," (",ROUND(AR14,2),")")</f>
+        <f t="shared" si="12"/>
         <v>718 (3.5)</v>
       </c>
     </row>
@@ -2438,11 +2445,11 @@
         <v>1</v>
       </c>
       <c r="D15" s="5">
-        <f>C15*100/B15</f>
+        <f t="shared" si="0"/>
         <v>0.14903129657228018</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f>CONCATENATE(C15," (",ROUND(D15,2),")")</f>
+        <f t="shared" si="1"/>
         <v>1 (0.15)</v>
       </c>
       <c r="F15" s="10"/>
@@ -2453,11 +2460,11 @@
         <v>242</v>
       </c>
       <c r="I15" s="5">
-        <f>H15*100/G15</f>
+        <f t="shared" si="2"/>
         <v>0.4818605392059257</v>
       </c>
       <c r="J15" s="3" t="str">
-        <f>CONCATENATE(H15," (",ROUND(I15,2),")")</f>
+        <f t="shared" si="3"/>
         <v>242 (0.48)</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -2466,14 +2473,16 @@
       <c r="L15" s="3">
         <v>183</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
       <c r="N15" s="8">
-        <f>M15*100/L15</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O15" s="3" t="str">
-        <f>CONCATENATE(M15," (",ROUND(N15,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3">
@@ -2483,11 +2492,11 @@
         <v>181</v>
       </c>
       <c r="S15" s="8">
-        <f>R15*100/Q15</f>
+        <f t="shared" si="5"/>
         <v>0.40709835586244125</v>
       </c>
       <c r="T15" s="3" t="str">
-        <f>CONCATENATE(R15," (",ROUND(S15,2),")")</f>
+        <f t="shared" si="6"/>
         <v>181 (0.41)</v>
       </c>
       <c r="U15" s="9">
@@ -2500,11 +2509,11 @@
         <v>0</v>
       </c>
       <c r="X15" s="8">
-        <f>W15*100/V15</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y15" s="3" t="str">
-        <f>CONCATENATE(W15," (",ROUND(X15,2),")")</f>
+        <f t="shared" si="7"/>
         <v>0 (0)</v>
       </c>
       <c r="Z15" s="4"/>
@@ -2514,7 +2523,7 @@
       <c r="AB15" s="16"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="3" t="str">
-        <f>CONCATENATE(AB15," (",ROUND(AC15,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE15" s="16"/>
@@ -2523,35 +2532,34 @@
       <c r="AH15" s="16"/>
       <c r="AI15" s="16"/>
       <c r="AJ15" s="16"/>
-      <c r="AK15" s="23">
+      <c r="AK15" s="1">
         <v>1101</v>
       </c>
-      <c r="AL15" s="23"/>
       <c r="AM15" s="1">
-        <f>AL15*100/AK15</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN15" s="3" t="str">
-        <f>CONCATENATE(AL15," (",ROUND(AM15,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
-      </c>
-      <c r="AO15" s="23" t="s">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AO15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AP15" s="1">
-        <f>B15+G15+L15+Q15+V15+AA15+AF15+AK15</f>
+        <f t="shared" si="9"/>
         <v>98521</v>
       </c>
       <c r="AQ15" s="1">
-        <f>C15+H15+M15+R15+W15+AB15+AG15+AL15</f>
+        <f t="shared" si="10"/>
         <v>424</v>
       </c>
       <c r="AR15" s="1">
-        <f>D15+I15+N15+S15+X15+AC15+AH15+AM15</f>
+        <f t="shared" si="11"/>
         <v>1.0379901916406471</v>
       </c>
       <c r="AS15" s="1" t="str">
-        <f>CONCATENATE(AQ15," (",ROUND(AR15,2),")")</f>
+        <f t="shared" si="12"/>
         <v>424 (1.04)</v>
       </c>
     </row>
@@ -2566,11 +2574,11 @@
         <v>2</v>
       </c>
       <c r="D16" s="5">
-        <f>C16*100/B16</f>
+        <f t="shared" si="0"/>
         <v>0.11435105774728416</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f>CONCATENATE(C16," (",ROUND(D16,2),")")</f>
+        <f t="shared" si="1"/>
         <v>2 (0.11)</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2583,11 +2591,11 @@
         <v>193</v>
       </c>
       <c r="I16" s="5">
-        <f>H16*100/G16</f>
+        <f t="shared" si="2"/>
         <v>0.25459054453355845</v>
       </c>
       <c r="J16" s="3" t="str">
-        <f>CONCATENATE(H16," (",ROUND(I16,2),")")</f>
+        <f t="shared" si="3"/>
         <v>193 (0.25)</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -2596,14 +2604,16 @@
       <c r="L16" s="3">
         <v>686</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
       <c r="N16" s="8">
-        <f>M16*100/L16</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O16" s="3" t="str">
-        <f>CONCATENATE(M16," (",ROUND(N16,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P16" s="3">
         <v>2</v>
@@ -2615,11 +2625,11 @@
         <v>85</v>
       </c>
       <c r="S16" s="8">
-        <f>R16*100/Q16</f>
+        <f t="shared" si="5"/>
         <v>0.2651030783145682</v>
       </c>
       <c r="T16" s="3" t="str">
-        <f>CONCATENATE(R16," (",ROUND(S16,2),")")</f>
+        <f t="shared" si="6"/>
         <v>85 (0.27)</v>
       </c>
       <c r="U16" s="9">
@@ -2632,11 +2642,11 @@
         <v>7</v>
       </c>
       <c r="X16" s="8">
-        <f>W16*100/V16</f>
+        <f t="shared" si="13"/>
         <v>5.9271803556308213E-2</v>
       </c>
       <c r="Y16" s="3" t="str">
-        <f>CONCATENATE(W16," (",ROUND(X16,2),")")</f>
+        <f t="shared" si="7"/>
         <v>7 (0.06)</v>
       </c>
       <c r="Z16" s="4" t="s">
@@ -2648,7 +2658,7 @@
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="3" t="str">
-        <f>CONCATENATE(AB16," (",ROUND(AC16,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE16" s="16"/>
@@ -2661,30 +2671,30 @@
         <v>111</v>
       </c>
       <c r="AM16" s="1">
-        <f>AL16*100/AK16</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN16" s="3" t="str">
-        <f>CONCATENATE(AL16," (",ROUND(AM16,2),")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AO16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AP16" s="1">
-        <f>B16+G16+L16+Q16+V16+AA16+AF16+AK16</f>
+        <f t="shared" si="9"/>
         <v>122908</v>
       </c>
       <c r="AQ16" s="1">
-        <f>C16+H16+M16+R16+W16+AB16+AG16+AL16</f>
+        <f t="shared" si="10"/>
         <v>287</v>
       </c>
       <c r="AR16" s="1">
-        <f>D16+I16+N16+S16+X16+AC16+AH16+AM16</f>
+        <f t="shared" si="11"/>
         <v>0.69331648415171898</v>
       </c>
       <c r="AS16" s="1" t="str">
-        <f>CONCATENATE(AQ16," (",ROUND(AR16,2),")")</f>
+        <f t="shared" si="12"/>
         <v>287 (0.69)</v>
       </c>
     </row>
@@ -2699,11 +2709,11 @@
         <v>0</v>
       </c>
       <c r="D17" s="5">
-        <f>C17*100/B17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f>CONCATENATE(C17," (",ROUND(D17,2),")")</f>
+        <f t="shared" si="1"/>
         <v>0 (0)</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -2716,11 +2726,11 @@
         <v>137</v>
       </c>
       <c r="I17" s="5">
-        <f>H17*100/G17</f>
+        <f t="shared" si="2"/>
         <v>0.33767962337630325</v>
       </c>
       <c r="J17" s="3" t="str">
-        <f>CONCATENATE(H17," (",ROUND(I17,2),")")</f>
+        <f t="shared" si="3"/>
         <v>137 (0.34)</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -2729,14 +2739,16 @@
       <c r="L17" s="3">
         <v>356</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
       <c r="N17" s="8">
-        <f>M17*100/L17</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O17" s="3" t="str">
-        <f>CONCATENATE(M17," (",ROUND(N17,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3">
@@ -2746,11 +2758,11 @@
         <v>95</v>
       </c>
       <c r="S17" s="8">
-        <f>R17*100/Q17</f>
+        <f t="shared" si="5"/>
         <v>0.19999157930192413</v>
       </c>
       <c r="T17" s="3" t="str">
-        <f>CONCATENATE(R17," (",ROUND(S17,2),")")</f>
+        <f t="shared" si="6"/>
         <v>95 (0.2)</v>
       </c>
       <c r="U17" s="9">
@@ -2763,11 +2775,11 @@
         <v>1</v>
       </c>
       <c r="X17" s="8">
-        <f>W17*100/V17</f>
+        <f t="shared" si="13"/>
         <v>8.7336244541484712E-2</v>
       </c>
       <c r="Y17" s="3" t="str">
-        <f>CONCATENATE(W17," (",ROUND(X17,2),")")</f>
+        <f t="shared" si="7"/>
         <v>1 (0.09)</v>
       </c>
       <c r="Z17" s="4" t="s">
@@ -2779,7 +2791,7 @@
       <c r="AB17" s="16"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="3" t="str">
-        <f>CONCATENATE(AB17," (",ROUND(AC17,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE17" s="16"/>
@@ -2789,23 +2801,23 @@
       <c r="AI17" s="16"/>
       <c r="AJ17" s="16"/>
       <c r="AN17" s="3" t="str">
-        <f>CONCATENATE(AL17," (",ROUND(AM17,2),")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AP17" s="1">
-        <f>B17+G17+L17+Q17+V17+AA17+AF17+AK17</f>
+        <f t="shared" si="9"/>
         <v>90724</v>
       </c>
       <c r="AQ17" s="1">
-        <f>C17+H17+M17+R17+W17+AB17+AG17+AL17</f>
+        <f t="shared" si="10"/>
         <v>233</v>
       </c>
       <c r="AR17" s="1">
-        <f>D17+I17+N17+S17+X17+AC17+AH17+AM17</f>
+        <f t="shared" si="11"/>
         <v>0.62500744721971202</v>
       </c>
       <c r="AS17" s="1" t="str">
-        <f>CONCATENATE(AQ17," (",ROUND(AR17,2),")")</f>
+        <f t="shared" si="12"/>
         <v>233 (0.63)</v>
       </c>
     </row>
@@ -2820,11 +2832,11 @@
         <v>6</v>
       </c>
       <c r="D18" s="5">
-        <f>C18*100/B18</f>
+        <f t="shared" si="0"/>
         <v>0.18975332068311196</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f>CONCATENATE(C18," (",ROUND(D18,2),")")</f>
+        <f t="shared" si="1"/>
         <v>6 (0.19)</v>
       </c>
       <c r="F18" s="10" t="s">
@@ -2837,11 +2849,11 @@
         <v>220</v>
       </c>
       <c r="I18" s="5">
-        <f>H18*100/G18</f>
+        <f t="shared" si="2"/>
         <v>0.2201915666629968</v>
       </c>
       <c r="J18" s="3" t="str">
-        <f>CONCATENATE(H18," (",ROUND(I18,2),")")</f>
+        <f t="shared" si="3"/>
         <v>220 (0.22)</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -2854,11 +2866,11 @@
         <v>1</v>
       </c>
       <c r="N18" s="8">
-        <f>M18*100/L18</f>
+        <f t="shared" si="16"/>
         <v>0.7407407407407407</v>
       </c>
       <c r="O18" s="3" t="str">
-        <f>CONCATENATE(M18," (",ROUND(N18,2),")")</f>
+        <f t="shared" si="4"/>
         <v>1 (0.74)</v>
       </c>
       <c r="P18" s="3">
@@ -2871,11 +2883,11 @@
         <v>56</v>
       </c>
       <c r="S18" s="8">
-        <f>R18*100/Q18</f>
+        <f t="shared" si="5"/>
         <v>0.18806461362796789</v>
       </c>
       <c r="T18" s="3" t="str">
-        <f>CONCATENATE(R18," (",ROUND(S18,2),")")</f>
+        <f t="shared" si="6"/>
         <v>56 (0.19)</v>
       </c>
       <c r="U18" s="9">
@@ -2888,11 +2900,11 @@
         <v>8</v>
       </c>
       <c r="X18" s="8">
-        <f>W18*100/V18</f>
+        <f t="shared" si="13"/>
         <v>0.11595883461371213</v>
       </c>
       <c r="Y18" s="3" t="str">
-        <f>CONCATENATE(W18," (",ROUND(X18,2),")")</f>
+        <f t="shared" si="7"/>
         <v>8 (0.12)</v>
       </c>
       <c r="Z18" s="4" t="s">
@@ -2909,7 +2921,7 @@
         <v>0.31746031746031744</v>
       </c>
       <c r="AD18" s="3" t="str">
-        <f>CONCATENATE(AB18," (",ROUND(AC18,2),")")</f>
+        <f t="shared" si="8"/>
         <v>6 (0.32)</v>
       </c>
       <c r="AE18" s="16"/>
@@ -2919,23 +2931,23 @@
       <c r="AI18" s="16"/>
       <c r="AJ18" s="16"/>
       <c r="AN18" s="3" t="str">
-        <f>CONCATENATE(AL18," (",ROUND(AM18,2),")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AP18" s="1">
-        <f>B18+G18+L18+Q18+V18+AA18+AF18+AK18</f>
+        <f t="shared" si="9"/>
         <v>141776</v>
       </c>
       <c r="AQ18" s="1">
-        <f>C18+H18+M18+R18+W18+AB18+AG18+AL18</f>
+        <f t="shared" si="10"/>
         <v>297</v>
       </c>
       <c r="AR18" s="1">
-        <f>D18+I18+N18+S18+X18+AC18+AH18+AM18</f>
+        <f t="shared" si="11"/>
         <v>1.7721693937888467</v>
       </c>
       <c r="AS18" s="1" t="str">
-        <f>CONCATENATE(AQ18," (",ROUND(AR18,2),")")</f>
+        <f t="shared" si="12"/>
         <v>297 (1.77)</v>
       </c>
     </row>
@@ -2950,11 +2962,11 @@
         <v>14</v>
       </c>
       <c r="D19" s="5">
-        <f>C19*100/B19</f>
+        <f t="shared" si="0"/>
         <v>0.23102310231023102</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f>CONCATENATE(C19," (",ROUND(D19,2),")")</f>
+        <f t="shared" si="1"/>
         <v>14 (0.23)</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -2967,11 +2979,11 @@
         <v>245</v>
       </c>
       <c r="I19" s="5">
-        <f>H19*100/G19</f>
+        <f t="shared" si="2"/>
         <v>0.18967839834012046</v>
       </c>
       <c r="J19" s="3" t="str">
-        <f>CONCATENATE(H19," (",ROUND(I19,2),")")</f>
+        <f t="shared" si="3"/>
         <v>245 (0.19)</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -2984,11 +2996,11 @@
         <v>1</v>
       </c>
       <c r="N19" s="8">
-        <f>M19*100/L19</f>
+        <f t="shared" si="16"/>
         <v>6.548788474132286E-2</v>
       </c>
       <c r="O19" s="3" t="str">
-        <f>CONCATENATE(M19," (",ROUND(N19,2),")")</f>
+        <f t="shared" si="4"/>
         <v>1 (0.07)</v>
       </c>
       <c r="P19" s="3">
@@ -3001,11 +3013,11 @@
         <v>97</v>
       </c>
       <c r="S19" s="8">
-        <f>R19*100/Q19</f>
+        <f t="shared" si="5"/>
         <v>0.17588395285584768</v>
       </c>
       <c r="T19" s="3" t="str">
-        <f>CONCATENATE(R19," (",ROUND(S19,2),")")</f>
+        <f t="shared" si="6"/>
         <v>97 (0.18)</v>
       </c>
       <c r="U19" s="9">
@@ -3018,11 +3030,11 @@
         <v>3</v>
       </c>
       <c r="X19" s="8">
-        <f>W19*100/V19</f>
+        <f t="shared" si="13"/>
         <v>3.8855070586711567E-2</v>
       </c>
       <c r="Y19" s="3" t="str">
-        <f>CONCATENATE(W19," (",ROUND(X19,2),")")</f>
+        <f t="shared" si="7"/>
         <v>3 (0.04)</v>
       </c>
       <c r="Z19" s="4" t="s">
@@ -3039,7 +3051,7 @@
         <v>0.15535991714137753</v>
       </c>
       <c r="AD19" s="3" t="str">
-        <f>CONCATENATE(AB19," (",ROUND(AC19,2),")")</f>
+        <f t="shared" si="8"/>
         <v>3 (0.16)</v>
       </c>
       <c r="AE19" s="16"/>
@@ -3052,30 +3064,30 @@
         <v>550</v>
       </c>
       <c r="AM19" s="1">
-        <f>AL19*100/AK19</f>
+        <f t="shared" ref="AM19:AM24" si="17">AL19*100/AK19</f>
         <v>0</v>
       </c>
       <c r="AN19" s="3" t="str">
-        <f>CONCATENATE(AL19," (",ROUND(AM19,2),")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AO19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AP19" s="1">
-        <f>B19+G19+L19+Q19+V19+AA19+AF19+AK19</f>
+        <f t="shared" si="9"/>
         <v>202105</v>
       </c>
       <c r="AQ19" s="1">
-        <f>C19+H19+M19+R19+W19+AB19+AG19+AL19</f>
+        <f t="shared" si="10"/>
         <v>363</v>
       </c>
       <c r="AR19" s="1">
-        <f>D19+I19+N19+S19+X19+AC19+AH19+AM19</f>
+        <f t="shared" si="11"/>
         <v>0.85628832597561111</v>
       </c>
       <c r="AS19" s="1" t="str">
-        <f>CONCATENATE(AQ19," (",ROUND(AR19,2),")")</f>
+        <f t="shared" si="12"/>
         <v>363 (0.86)</v>
       </c>
     </row>
@@ -3090,11 +3102,11 @@
         <v>8</v>
       </c>
       <c r="D20" s="5">
-        <f>C20*100/B20</f>
+        <f t="shared" si="0"/>
         <v>0.28891296496930302</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f>CONCATENATE(C20," (",ROUND(D20,2),")")</f>
+        <f t="shared" si="1"/>
         <v>8 (0.29)</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -3107,11 +3119,11 @@
         <v>325</v>
       </c>
       <c r="I20" s="5">
-        <f>H20*100/G20</f>
+        <f t="shared" si="2"/>
         <v>0.17250439222721747</v>
       </c>
       <c r="J20" s="3" t="str">
-        <f>CONCATENATE(H20," (",ROUND(I20,2),")")</f>
+        <f t="shared" si="3"/>
         <v>325 (0.17)</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -3124,11 +3136,11 @@
         <v>3</v>
       </c>
       <c r="N20" s="8">
-        <f>M20*100/L20</f>
+        <f t="shared" si="16"/>
         <v>0.14211274277593558</v>
       </c>
       <c r="O20" s="3" t="str">
-        <f>CONCATENATE(M20," (",ROUND(N20,2),")")</f>
+        <f t="shared" si="4"/>
         <v>3 (0.14)</v>
       </c>
       <c r="P20" s="3">
@@ -3141,11 +3153,11 @@
         <v>437</v>
       </c>
       <c r="S20" s="8">
-        <f>R20*100/Q20</f>
+        <f t="shared" si="5"/>
         <v>0.23481872746519364</v>
       </c>
       <c r="T20" s="3" t="str">
-        <f>CONCATENATE(R20," (",ROUND(S20,2),")")</f>
+        <f t="shared" si="6"/>
         <v>437 (0.23)</v>
       </c>
       <c r="U20" s="11">
@@ -3158,11 +3170,11 @@
         <v>1</v>
       </c>
       <c r="X20" s="8">
-        <f>W20*100/V20</f>
+        <f t="shared" si="13"/>
         <v>4.3603383622569112E-3</v>
       </c>
       <c r="Y20" s="3" t="str">
-        <f>CONCATENATE(W20," (",ROUND(X20,2),")")</f>
+        <f t="shared" si="7"/>
         <v>1 (0)</v>
       </c>
       <c r="Z20" s="4" t="s">
@@ -3172,7 +3184,7 @@
       <c r="AB20" s="16"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="3" t="str">
-        <f>CONCATENATE(AB20," (",ROUND(AC20,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE20" s="16"/>
@@ -3181,35 +3193,34 @@
       <c r="AH20" s="16"/>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="16"/>
-      <c r="AK20" s="23">
+      <c r="AK20" s="1">
         <v>87</v>
       </c>
-      <c r="AL20" s="23"/>
       <c r="AM20" s="1">
-        <f>AL20*100/AK20</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AN20" s="3" t="str">
-        <f>CONCATENATE(AL20," (",ROUND(AM20,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
-      </c>
-      <c r="AO20" s="23" t="s">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AO20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AP20" s="1">
-        <f>B20+G20+L20+Q20+V20+AA20+AF20+AK20</f>
+        <f t="shared" si="9"/>
         <v>402403</v>
       </c>
       <c r="AQ20" s="1">
-        <f>C20+H20+M20+R20+W20+AB20+AG20+AL20</f>
+        <f t="shared" si="10"/>
         <v>774</v>
       </c>
       <c r="AR20" s="1">
-        <f>D20+I20+N20+S20+X20+AC20+AH20+AM20</f>
+        <f t="shared" si="11"/>
         <v>0.84270916579990662</v>
       </c>
       <c r="AS20" s="1" t="str">
-        <f>CONCATENATE(AQ20," (",ROUND(AR20,2),")")</f>
+        <f t="shared" si="12"/>
         <v>774 (0.84)</v>
       </c>
     </row>
@@ -3224,11 +3235,11 @@
         <v>26</v>
       </c>
       <c r="D21" s="5">
-        <f>C21*100/B21</f>
+        <f t="shared" si="0"/>
         <v>0.25620811982656683</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f>CONCATENATE(C21," (",ROUND(D21,2),")")</f>
+        <f t="shared" si="1"/>
         <v>26 (0.26)</v>
       </c>
       <c r="F21" s="10" t="s">
@@ -3241,11 +3252,11 @@
         <v>172</v>
       </c>
       <c r="I21" s="5">
-        <f>H21*100/G21</f>
+        <f t="shared" si="2"/>
         <v>0.16997391098110523</v>
       </c>
       <c r="J21" s="3" t="str">
-        <f>CONCATENATE(H21," (",ROUND(I21,2),")")</f>
+        <f t="shared" si="3"/>
         <v>172 (0.17)</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -3258,11 +3269,11 @@
         <v>3</v>
       </c>
       <c r="N21" s="8">
-        <f>M21*100/L21</f>
+        <f t="shared" si="16"/>
         <v>0.36991368680641185</v>
       </c>
       <c r="O21" s="3" t="str">
-        <f>CONCATENATE(M21," (",ROUND(N21,2),")")</f>
+        <f t="shared" si="4"/>
         <v>3 (0.37)</v>
       </c>
       <c r="P21" s="3">
@@ -3275,11 +3286,11 @@
         <v>58</v>
       </c>
       <c r="S21" s="8">
-        <f>R21*100/Q21</f>
+        <f t="shared" si="5"/>
         <v>0.11227472463655898</v>
       </c>
       <c r="T21" s="3" t="str">
-        <f>CONCATENATE(R21," (",ROUND(S21,2),")")</f>
+        <f t="shared" si="6"/>
         <v>58 (0.11)</v>
       </c>
       <c r="U21" s="9" t="s">
@@ -3292,11 +3303,11 @@
         <v>3</v>
       </c>
       <c r="X21" s="8">
-        <f>W21*100/V21</f>
+        <f t="shared" si="13"/>
         <v>5.6076862686455569E-3</v>
       </c>
       <c r="Y21" s="3" t="str">
-        <f>CONCATENATE(W21," (",ROUND(X21,2),")")</f>
+        <f t="shared" si="7"/>
         <v>3 (0.01)</v>
       </c>
       <c r="Z21" s="4" t="s">
@@ -3308,7 +3319,7 @@
       <c r="AB21" s="16"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="3" t="str">
-        <f>CONCATENATE(AB21," (",ROUND(AC21,2),")")</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AE21" s="16">
@@ -3321,35 +3332,34 @@
       <c r="AH21" s="16"/>
       <c r="AI21" s="16"/>
       <c r="AJ21" s="16"/>
-      <c r="AK21" s="23">
+      <c r="AK21" s="1">
         <v>28</v>
       </c>
-      <c r="AL21" s="23"/>
       <c r="AM21" s="1">
-        <f>AL21*100/AK21</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AN21" s="3" t="str">
-        <f>CONCATENATE(AL21," (",ROUND(AM21,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
-      </c>
-      <c r="AO21" s="23" t="s">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
+      <c r="AO21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AP21" s="1">
-        <f>B21+G21+L21+Q21+V21+AA21+AF21+AK21</f>
+        <f t="shared" si="9"/>
         <v>220830</v>
       </c>
       <c r="AQ21" s="1">
-        <f>C21+H21+M21+R21+W21+AB21+AG21+AL21</f>
+        <f t="shared" si="10"/>
         <v>262</v>
       </c>
       <c r="AR21" s="1">
-        <f>D21+I21+N21+S21+X21+AC21+AH21+AM21</f>
+        <f t="shared" si="11"/>
         <v>0.9139781285192885</v>
       </c>
       <c r="AS21" s="1" t="str">
-        <f>CONCATENATE(AQ21," (",ROUND(AR21,2),")")</f>
+        <f t="shared" si="12"/>
         <v>262 (0.91)</v>
       </c>
     </row>
@@ -3364,11 +3374,11 @@
         <v>164</v>
       </c>
       <c r="D22" s="5">
-        <f>C22*100/B22</f>
+        <f t="shared" si="0"/>
         <v>0.16180910472206325</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f>CONCATENATE(C22," (",ROUND(D22,2),")")</f>
+        <f t="shared" si="1"/>
         <v>164 (0.16)</v>
       </c>
       <c r="F22" s="10" t="s">
@@ -3381,11 +3391,11 @@
         <v>166</v>
       </c>
       <c r="I22" s="5">
-        <f>H22*100/G22</f>
+        <f t="shared" si="2"/>
         <v>0.10552077042875758</v>
       </c>
       <c r="J22" s="3" t="str">
-        <f>CONCATENATE(H22," (",ROUND(I22,2),")")</f>
+        <f t="shared" si="3"/>
         <v>166 (0.11)</v>
       </c>
       <c r="K22" s="11" t="s">
@@ -3398,11 +3408,11 @@
         <v>6</v>
       </c>
       <c r="N22" s="8">
-        <f>M22*100/L22</f>
+        <f t="shared" si="16"/>
         <v>3.3348154735437972E-2</v>
       </c>
       <c r="O22" s="3" t="str">
-        <f>CONCATENATE(M22," (",ROUND(N22,2),")")</f>
+        <f t="shared" si="4"/>
         <v>6 (0.03)</v>
       </c>
       <c r="P22" s="3" t="s">
@@ -3415,11 +3425,11 @@
         <v>157</v>
       </c>
       <c r="S22" s="8">
-        <f>R22*100/Q22</f>
+        <f t="shared" si="5"/>
         <v>0.14945406429380576</v>
       </c>
       <c r="T22" s="3" t="str">
-        <f>CONCATENATE(R22," (",ROUND(S22,2),")")</f>
+        <f t="shared" si="6"/>
         <v>157 (0.15)</v>
       </c>
       <c r="U22" s="11" t="s">
@@ -3432,11 +3442,11 @@
         <v>95</v>
       </c>
       <c r="X22" s="8">
-        <f>W22*100/V22</f>
+        <f t="shared" si="13"/>
         <v>0.17757673184044262</v>
       </c>
       <c r="Y22" s="3" t="str">
-        <f>CONCATENATE(W22," (",ROUND(X22,2),")")</f>
+        <f t="shared" si="7"/>
         <v>95 (0.18)</v>
       </c>
       <c r="Z22" s="4" t="s">
@@ -3453,16 +3463,15 @@
         <v>0</v>
       </c>
       <c r="AD22" s="3" t="str">
-        <f>CONCATENATE(AB22," (",ROUND(AC22,2),")")</f>
+        <f t="shared" si="8"/>
         <v>0 (0)</v>
       </c>
-      <c r="AE22" s="23">
+      <c r="AE22" s="1">
         <v>3</v>
       </c>
-      <c r="AF22" s="23">
+      <c r="AF22" s="1">
         <v>15</v>
       </c>
-      <c r="AG22" s="23"/>
       <c r="AH22" s="16"/>
       <c r="AI22" s="16"/>
       <c r="AJ22" s="16"/>
@@ -3473,30 +3482,30 @@
         <v>6</v>
       </c>
       <c r="AM22" s="1">
-        <f>AL22*100/AK22</f>
+        <f t="shared" si="17"/>
         <v>0.18132366273798731</v>
       </c>
       <c r="AN22" s="3" t="str">
-        <f>CONCATENATE(AL22," (",ROUND(AM22,2),")")</f>
+        <f t="shared" si="15"/>
         <v>6 (0.18)</v>
       </c>
       <c r="AO22" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AP22" s="1">
-        <f>B22+G22+L22+Q22+V22+AA22+AF22+AK22</f>
+        <f t="shared" si="9"/>
         <v>443516</v>
       </c>
       <c r="AQ22" s="1">
-        <f>C22+H22+M22+R22+W22+AB22+AG22+AL22</f>
+        <f t="shared" si="10"/>
         <v>594</v>
       </c>
       <c r="AR22" s="1">
-        <f>D22+I22+N22+S22+X22+AC22+AH22+AM22</f>
+        <f t="shared" si="11"/>
         <v>0.80903248875849443</v>
       </c>
       <c r="AS22" s="1" t="str">
-        <f>CONCATENATE(AQ22," (",ROUND(AR22,2),")")</f>
+        <f t="shared" si="12"/>
         <v>594 (0.81)</v>
       </c>
     </row>
@@ -3511,11 +3520,11 @@
         <v>3</v>
       </c>
       <c r="D23" s="5">
-        <f>C23*100/B23</f>
+        <f t="shared" si="0"/>
         <v>0.21352313167259787</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f>CONCATENATE(C23," (",ROUND(D23,2),")")</f>
+        <f t="shared" si="1"/>
         <v>3 (0.21)</v>
       </c>
       <c r="F23" s="10"/>
@@ -3526,11 +3535,11 @@
         <v>56</v>
       </c>
       <c r="I23" s="5">
-        <f>H23*100/G23</f>
+        <f t="shared" si="2"/>
         <v>0.12560278120444096</v>
       </c>
       <c r="J23" s="3" t="str">
-        <f>CONCATENATE(H23," (",ROUND(I23,2),")")</f>
+        <f t="shared" si="3"/>
         <v>56 (0.13)</v>
       </c>
       <c r="K23" s="11" t="s">
@@ -3539,14 +3548,16 @@
       <c r="L23" s="3">
         <v>530</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
       <c r="N23" s="8">
-        <f>M23*100/L23</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O23" s="3" t="str">
-        <f>CONCATENATE(M23," (",ROUND(N23,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3">
@@ -3556,11 +3567,11 @@
         <v>46</v>
       </c>
       <c r="S23" s="8">
-        <f>R23*100/Q23</f>
+        <f t="shared" si="5"/>
         <v>0.14761568577113152</v>
       </c>
       <c r="T23" s="3" t="str">
-        <f>CONCATENATE(R23," (",ROUND(S23,2),")")</f>
+        <f t="shared" si="6"/>
         <v>46 (0.15)</v>
       </c>
       <c r="U23" s="11" t="s">
@@ -3573,11 +3584,11 @@
         <v>0</v>
       </c>
       <c r="X23" s="8">
-        <f>W23*100/V23</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y23" s="3" t="str">
-        <f>CONCATENATE(W23," (",ROUND(X23,2),")")</f>
+        <f t="shared" si="7"/>
         <v>0 (0)</v>
       </c>
       <c r="Z23" s="4"/>
@@ -3592,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="3" t="str">
-        <f>CONCATENATE(AB23," (",ROUND(AC23,2),")")</f>
+        <f t="shared" si="8"/>
         <v>0 (0)</v>
       </c>
       <c r="AE23" s="16">
@@ -3605,33 +3616,31 @@
       <c r="AH23" s="16"/>
       <c r="AI23" s="16"/>
       <c r="AJ23" s="16"/>
-      <c r="AK23" s="23">
+      <c r="AK23" s="1">
         <v>16</v>
       </c>
-      <c r="AL23" s="23"/>
       <c r="AM23" s="1">
-        <f>AL23*100/AK23</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AN23" s="3" t="str">
-        <f>CONCATENATE(AL23," (",ROUND(AM23,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
-      </c>
-      <c r="AO23" s="23"/>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> (0)</v>
+      </c>
       <c r="AP23" s="1">
-        <f>B23+G23+L23+Q23+V23+AA23+AF23+AK23</f>
+        <f t="shared" si="9"/>
         <v>90910</v>
       </c>
       <c r="AQ23" s="1">
-        <f>C23+H23+M23+R23+W23+AB23+AG23+AL23</f>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="AR23" s="1">
-        <f>D23+I23+N23+S23+X23+AC23+AH23+AM23</f>
+        <f t="shared" si="11"/>
         <v>0.48674159864817035</v>
       </c>
       <c r="AS23" s="1" t="str">
-        <f>CONCATENATE(AQ23," (",ROUND(AR23,2),")")</f>
+        <f t="shared" si="12"/>
         <v>105 (0.49)</v>
       </c>
     </row>
@@ -3646,11 +3655,11 @@
         <v>105</v>
       </c>
       <c r="D24" s="5">
-        <f>C24*100/B24</f>
+        <f t="shared" si="0"/>
         <v>0.36934116571106967</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f>CONCATENATE(C24," (",ROUND(D24,2),")")</f>
+        <f t="shared" si="1"/>
         <v>105 (0.37)</v>
       </c>
       <c r="F24" s="10"/>
@@ -3661,11 +3670,11 @@
         <v>346</v>
       </c>
       <c r="I24" s="5">
-        <f>H24*100/G24</f>
+        <f t="shared" si="2"/>
         <v>0.17904732334601153</v>
       </c>
       <c r="J24" s="3" t="str">
-        <f>CONCATENATE(H24," (",ROUND(I24,2),")")</f>
+        <f t="shared" si="3"/>
         <v>346 (0.18)</v>
       </c>
       <c r="K24" s="7" t="s">
@@ -3674,14 +3683,16 @@
       <c r="L24" s="3">
         <v>540</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
       <c r="N24" s="8">
-        <f>M24*100/L24</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O24" s="3" t="str">
-        <f>CONCATENATE(M24," (",ROUND(N24,2),")")</f>
-        <v xml:space="preserve"> (0)</v>
+        <f t="shared" si="4"/>
+        <v>0 (0)</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3">
@@ -3691,11 +3702,11 @@
         <v>41</v>
       </c>
       <c r="S24" s="8">
-        <f>R24*100/Q24</f>
+        <f t="shared" si="5"/>
         <v>0.11412982964035186</v>
       </c>
       <c r="T24" s="3" t="str">
-        <f>CONCATENATE(R24," (",ROUND(S24,2),")")</f>
+        <f t="shared" si="6"/>
         <v>41 (0.11)</v>
       </c>
       <c r="U24" s="11" t="s">
@@ -3708,11 +3719,11 @@
         <v>166</v>
       </c>
       <c r="X24" s="8">
-        <f>W24*100/V24</f>
+        <f t="shared" si="13"/>
         <v>0.31776416539050534</v>
       </c>
       <c r="Y24" s="3" t="str">
-        <f>CONCATENATE(W24," (",ROUND(X24,2),")")</f>
+        <f t="shared" si="7"/>
         <v>166 (0.32)</v>
       </c>
       <c r="Z24" s="4" t="s">
@@ -3722,7 +3733,6 @@
       <c r="AB24" s="16"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="3"/>
-      <c r="AE24" s="23"/>
       <c r="AF24" s="16">
         <v>775</v>
       </c>
@@ -3742,27 +3752,27 @@
         <v>5</v>
       </c>
       <c r="AM24" s="1">
-        <f>AL24*100/AK24</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AN24" s="3" t="str">
-        <f>CONCATENATE(AL24," (",ROUND(AM24,2),")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AP24" s="1">
-        <f>B24+G24+L24+Q24+V24+AA24+AF24+AK24</f>
+        <f t="shared" si="9"/>
         <v>311158</v>
       </c>
       <c r="AQ24" s="1">
-        <f>C24+H24+M24+R24+W24+AB24+AG24+AL24</f>
+        <f t="shared" si="10"/>
         <v>658</v>
       </c>
       <c r="AR24" s="1">
-        <f>D24+I24+N24+S24+X24+AC24+AH24+AM24</f>
+        <f t="shared" si="11"/>
         <v>0.98028248408793839</v>
       </c>
       <c r="AS24" s="1" t="str">
-        <f>CONCATENATE(AQ24," (",ROUND(AR24,2),")")</f>
+        <f t="shared" si="12"/>
         <v>658 (0.98)</v>
       </c>
     </row>
@@ -3777,11 +3787,11 @@
         <v>281</v>
       </c>
       <c r="D25" s="5">
-        <f>C25*100/B25</f>
+        <f t="shared" si="0"/>
         <v>0.45045045045045046</v>
       </c>
       <c r="E25" s="3" t="str">
-        <f>CONCATENATE(C25," (",ROUND(D25,2),")")</f>
+        <f t="shared" si="1"/>
         <v>281 (0.45)</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -3794,11 +3804,11 @@
         <v>303</v>
       </c>
       <c r="I25" s="5">
-        <f>H25*100/G25</f>
+        <f t="shared" si="2"/>
         <v>0.12990298005153247</v>
       </c>
       <c r="J25" s="3" t="str">
-        <f>CONCATENATE(H25," (",ROUND(I25,2),")")</f>
+        <f t="shared" si="3"/>
         <v>303 (0.13)</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -3811,11 +3821,11 @@
         <v>88</v>
       </c>
       <c r="N25" s="8">
-        <f>M25*100/L25</f>
+        <f t="shared" si="16"/>
         <v>0.16063084112149534</v>
       </c>
       <c r="O25" s="3" t="str">
-        <f>CONCATENATE(M25," (",ROUND(N25,2),")")</f>
+        <f t="shared" si="4"/>
         <v>88 (0.16)</v>
       </c>
       <c r="P25" s="3" t="s">
@@ -3828,11 +3838,11 @@
         <v>72</v>
       </c>
       <c r="S25" s="8">
-        <f>R25*100/Q25</f>
+        <f t="shared" si="5"/>
         <v>9.6296593508004652E-2</v>
       </c>
       <c r="T25" s="3" t="str">
-        <f>CONCATENATE(R25," (",ROUND(S25,2),")")</f>
+        <f t="shared" si="6"/>
         <v>72 (0.1)</v>
       </c>
       <c r="U25" s="11" t="s">
@@ -3845,11 +3855,11 @@
         <v>51</v>
       </c>
       <c r="X25" s="8">
-        <f>W25*100/V25</f>
+        <f t="shared" si="13"/>
         <v>6.4551242294986516E-2</v>
       </c>
       <c r="Y25" s="3" t="str">
-        <f>CONCATENATE(W25," (",ROUND(X25,2),")")</f>
+        <f t="shared" si="7"/>
         <v>51 (0.06)</v>
       </c>
       <c r="Z25" s="4" t="s">
@@ -3867,7 +3877,7 @@
         <f>CONCATENATE(AB25," (",ROUND(AC25,2),")")</f>
         <v xml:space="preserve"> (0)</v>
       </c>
-      <c r="AE25" s="23">
+      <c r="AE25" s="1">
         <v>3</v>
       </c>
       <c r="AF25" s="16">
@@ -3886,23 +3896,23 @@
         <v>26</v>
       </c>
       <c r="AN25" s="3" t="str">
-        <f>CONCATENATE(AL25," (",ROUND(AM25,2),")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AP25" s="1">
-        <f>B25+G25+L25+Q25+V25+AA25+AF25+AK25</f>
+        <f t="shared" si="9"/>
         <v>507007</v>
       </c>
       <c r="AQ25" s="1">
-        <f>C25+H25+M25+R25+W25+AB25+AG25+AL25</f>
+        <f t="shared" si="10"/>
         <v>795</v>
       </c>
       <c r="AR25" s="1">
-        <f>D25+I25+N25+S25+X25+AC25+AH25+AM25</f>
+        <f t="shared" si="11"/>
         <v>0.90183210742646946</v>
       </c>
       <c r="AS25" s="1" t="str">
-        <f>CONCATENATE(AQ25," (",ROUND(AR25,2),")")</f>
+        <f t="shared" si="12"/>
         <v>795 (0.9)</v>
       </c>
     </row>
@@ -3917,11 +3927,11 @@
         <v>1705</v>
       </c>
       <c r="D26" s="5">
-        <f>C26*100/B26</f>
+        <f t="shared" si="0"/>
         <v>0.53085662512181686</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f>CONCATENATE(C26," (",ROUND(D26,2),")")</f>
+        <f t="shared" si="1"/>
         <v>1705 (0.53)</v>
       </c>
       <c r="F26" s="10" t="s">
@@ -3934,11 +3944,11 @@
         <v>91</v>
       </c>
       <c r="I26" s="5">
-        <f>H26*100/G26</f>
+        <f t="shared" si="2"/>
         <v>9.6605023461219977E-2</v>
       </c>
       <c r="J26" s="3" t="str">
-        <f>CONCATENATE(H26," (",ROUND(I26,2),")")</f>
+        <f t="shared" si="3"/>
         <v>91 (0.1)</v>
       </c>
       <c r="K26" s="7" t="s">
@@ -3951,11 +3961,11 @@
         <v>20</v>
       </c>
       <c r="N26" s="8">
-        <f>M26*100/L26</f>
+        <f t="shared" si="16"/>
         <v>3.9029721132642504E-2</v>
       </c>
       <c r="O26" s="3" t="str">
-        <f>CONCATENATE(M26," (",ROUND(N26,2),")")</f>
+        <f t="shared" si="4"/>
         <v>20 (0.04)</v>
       </c>
       <c r="P26" s="3" t="s">
@@ -3968,11 +3978,11 @@
         <v>38</v>
       </c>
       <c r="S26" s="8">
-        <f>R26*100/Q26</f>
+        <f t="shared" si="5"/>
         <v>4.3663606384078874E-2</v>
       </c>
       <c r="T26" s="3" t="str">
-        <f>CONCATENATE(R26," (",ROUND(S26,2),")")</f>
+        <f t="shared" si="6"/>
         <v>38 (0.04)</v>
       </c>
       <c r="U26" s="11" t="s">
@@ -3985,11 +3995,11 @@
         <v>10</v>
       </c>
       <c r="X26" s="8">
-        <f>W26*100/V26</f>
+        <f t="shared" si="13"/>
         <v>7.943442688061006E-2</v>
       </c>
       <c r="Y26" s="3" t="str">
-        <f>CONCATENATE(W26," (",ROUND(X26,2),")")</f>
+        <f t="shared" si="7"/>
         <v>10 (0.08)</v>
       </c>
       <c r="Z26" s="4" t="s">
@@ -4007,7 +4017,6 @@
         <f>CONCATENATE(AB26," (",ROUND(AC26,2),")")</f>
         <v xml:space="preserve"> (0)</v>
       </c>
-      <c r="AE26" s="23"/>
       <c r="AF26" s="16">
         <v>1496</v>
       </c>
@@ -4029,23 +4038,23 @@
         <v>0</v>
       </c>
       <c r="AN26" s="3" t="str">
-        <f>CONCATENATE(AL26," (",ROUND(AM26,2),")")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> (0)</v>
       </c>
       <c r="AP26" s="1">
-        <f>B26+G26+L26+Q26+V26+AA26+AF26+AK26</f>
+        <f t="shared" si="9"/>
         <v>570957</v>
       </c>
       <c r="AQ26" s="1">
-        <f>C26+H26+M26+R26+W26+AB26+AG26+AL26</f>
+        <f t="shared" si="10"/>
         <v>1865</v>
       </c>
       <c r="AR26" s="1">
-        <f>D26+I26+N26+S26+X26+AC26+AH26+AM26</f>
+        <f t="shared" si="11"/>
         <v>0.85643432276646458</v>
       </c>
       <c r="AS26" s="1" t="str">
-        <f>CONCATENATE(AQ26," (",ROUND(AR26,2),")")</f>
+        <f t="shared" si="12"/>
         <v>1865 (0.86)</v>
       </c>
     </row>
